--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5306D8-5DAC-49BA-935A-185308BC1AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138CE4A-F6D4-4E33-BF2F-486838B23CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="239">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -698,6 +698,9 @@
     <t>штук в упаковке</t>
   </si>
   <si>
+    <t>кв. м. в упаковке</t>
+  </si>
+  <si>
     <t>Ширина, см</t>
   </si>
   <si>
@@ -743,19 +746,7 @@
     <t>Alps</t>
   </si>
   <si>
-    <t>Realistik Индия Alps Glitter Shapetouch Pro Зеленый Матовый Керамогранит 60х120 см</t>
-  </si>
-  <si>
     <t>Amazon</t>
-  </si>
-  <si>
-    <t>Realistik Индия Amazon Beige Shapetouch Бежевый Матовый Керамогранит 60х120 см</t>
-  </si>
-  <si>
-    <t>Realistik Индия Amazon Grande Shapetouch Светло-Серый Матовый Керамогранит 60х120 см</t>
-  </si>
-  <si>
-    <t>кв. м. в упаковке</t>
   </si>
 </sst>
 </file>
@@ -1370,6 +1361,9 @@
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,9 +1374,6 @@
     </xf>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1801,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R32" workbookViewId="0">
-      <selection activeCell="AC41" sqref="AC41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1836,8 +1827,8 @@
     <col min="37" max="37" width="9.42578125" style="10" customWidth="1"/>
     <col min="38" max="38" width="9.42578125" style="7" customWidth="1"/>
     <col min="39" max="40" width="9.140625" style="11" customWidth="1"/>
-    <col min="41" max="42" width="9.140625" style="4" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="4"/>
+    <col min="41" max="43" width="9.140625" style="4" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2880,12 +2871,12 @@
       <c r="AH39" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="AI39" s="92" t="s">
+      <c r="AI39" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="AJ39" s="93"/>
-      <c r="AK39" s="93"/>
-      <c r="AL39" s="94"/>
+      <c r="AJ39" s="94"/>
+      <c r="AK39" s="94"/>
+      <c r="AL39" s="95"/>
       <c r="AM39" s="71"/>
       <c r="AN39" s="71"/>
     </row>
@@ -2952,15 +2943,15 @@
       <c r="AH40" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="AI40" s="95" t="s">
+      <c r="AI40" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="AJ40" s="93"/>
-      <c r="AK40" s="94"/>
-      <c r="AM40" s="96" t="s">
+      <c r="AJ40" s="94"/>
+      <c r="AK40" s="95"/>
+      <c r="AM40" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="AN40" s="94"/>
+      <c r="AN40" s="95"/>
     </row>
     <row r="41" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
@@ -3048,43 +3039,43 @@
         <v>221</v>
       </c>
       <c r="AC41" s="31" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="AD41" s="63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AE41" s="63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF41" s="64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG41" s="65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AH41" s="73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI41" s="74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AJ41" s="75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK41" s="76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL41" s="77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM41" s="74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN41" s="74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO41" s="91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:41" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3092,7 +3083,7 @@
         <v>178</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>74</v>
@@ -3102,42 +3093,24 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="G42" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="H42" s="36">
-        <v>82157</v>
-      </c>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="L42" s="45" t="s">
-        <v>140</v>
-      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="49"/>
-      <c r="N42" s="89" t="s">
-        <v>171</v>
-      </c>
+      <c r="N42" s="89"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
-      <c r="Q42" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="R42" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="S42" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="54"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -3145,38 +3118,26 @@
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
       <c r="Z42" s="35"/>
-      <c r="AA42" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB42" s="35">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="54">
-        <v>60</v>
-      </c>
-      <c r="AE42" s="66">
-        <v>120</v>
-      </c>
-      <c r="AF42" s="67">
-        <v>8.5</v>
-      </c>
-      <c r="AG42" s="68">
-        <v>2379</v>
-      </c>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="68"/>
       <c r="AH42" s="72" t="s">
         <v>165</v>
       </c>
       <c r="AI42" s="78">
-        <f t="shared" ref="AI42:AI44" si="0">IF(AH42="USD",AG42*64.8306,IF(AH42="EUR",AG42*72.3639,IF(AH42="RUB",AG42,0)))</f>
-        <v>2379</v>
+        <f>IF(AH42="USD",AG42*64.8306,IF(AH42="EUR",AG42*72.3639,IF(AH42="RUB",AG42,0)))</f>
+        <v>0</v>
       </c>
       <c r="AJ42" s="79">
         <v>23.4</v>
       </c>
       <c r="AK42" s="80">
-        <f t="shared" ref="AK42:AK44" si="1">AI42*(1+AJ42/100)</f>
-        <v>2935.6860000000001</v>
+        <f>AI42*(1+AJ42/100)</f>
+        <v>0</v>
       </c>
       <c r="AL42" s="81"/>
       <c r="AM42" s="82">
@@ -3188,14 +3149,14 @@
         <v>0</v>
       </c>
       <c r="AO42" s="16" t="str">
-        <f t="shared" ref="AO42:AO44" si="2">IF(RIGHT(G42,1)=" ","Ошибка, пробел справа!","ок")</f>
+        <f>IF(RIGHT(G42,1)=" ","Ошибка, пробел справа!","ок")</f>
         <v>ок</v>
       </c>
     </row>
     <row r="43" spans="1:41" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>74</v>
@@ -3205,42 +3166,24 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="G43" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="H43" s="36">
-        <v>82154</v>
-      </c>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="L43" s="45" t="s">
-        <v>95</v>
-      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="45"/>
       <c r="M43" s="49"/>
-      <c r="N43" s="89" t="s">
-        <v>171</v>
-      </c>
+      <c r="N43" s="89"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
-      <c r="Q43" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="R43" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="S43" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="54"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -3248,38 +3191,26 @@
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
       <c r="Z43" s="35"/>
-      <c r="AA43" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB43" s="35">
-        <v>2</v>
-      </c>
+      <c r="AA43" s="54"/>
+      <c r="AB43" s="35"/>
       <c r="AC43" s="35"/>
-      <c r="AD43" s="54">
-        <v>60</v>
-      </c>
-      <c r="AE43" s="66">
-        <v>120</v>
-      </c>
-      <c r="AF43" s="67">
-        <v>8.5</v>
-      </c>
-      <c r="AG43" s="68">
-        <v>3330</v>
-      </c>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="67"/>
+      <c r="AG43" s="68"/>
       <c r="AH43" s="72" t="s">
         <v>165</v>
       </c>
       <c r="AI43" s="78">
-        <f t="shared" si="0"/>
-        <v>3330</v>
+        <f>IF(AH43="USD",AG43*64.8306,IF(AH43="EUR",AG43*72.3639,IF(AH43="RUB",AG43,0)))</f>
+        <v>0</v>
       </c>
       <c r="AJ43" s="79">
         <v>23.4</v>
       </c>
       <c r="AK43" s="80">
-        <f t="shared" si="1"/>
-        <v>4109.22</v>
+        <f>AI43*(1+AJ43/100)</f>
+        <v>0</v>
       </c>
       <c r="AL43" s="81"/>
       <c r="AM43" s="82">
@@ -3291,104 +3222,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>ок</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="33" t="str">
-        <f>IF(C44=C$19,D$19,IF(C44=C$20,D$20,IF(C44=C$21,D$21,IF(C44=C$22,D$22,IF(C44=C$23,D$23,IF(C44=C$24,D$24,IF(C44=C$25,D$25,IF(C44=C$26,D$26,IF(C44=C$27,D$27,IF(C44=C$28,D$28,IF(C44=C$29,D$29,IF(C44=C$30,D$30,IF(C44=C$31,D$31,IF(C44=C$32,D$32,IF(C44=C$33,D$33,IF(C44=C$34,D$34,IF(C44=C$35,D$35,IF(C44=C$36,D$36,IF(C44=C$37,D$37,IF(C44=C$38,D$38,IF(C44=C$39,D$39,IF(C44=C$40,D$40,))))))))))))))))))))))</f>
-        <v>Индийская плитка</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="H44" s="36">
-        <v>82155</v>
-      </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="L44" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="M44" s="49"/>
-      <c r="N44" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="R44" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="S44" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB44" s="35">
-        <v>2</v>
-      </c>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="54">
-        <v>60</v>
-      </c>
-      <c r="AE44" s="66">
-        <v>120</v>
-      </c>
-      <c r="AF44" s="67">
-        <v>8.5</v>
-      </c>
-      <c r="AG44" s="68">
-        <v>3330</v>
-      </c>
-      <c r="AH44" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI44" s="78">
-        <f t="shared" si="0"/>
-        <v>3330</v>
-      </c>
-      <c r="AJ44" s="79">
-        <v>23.4</v>
-      </c>
-      <c r="AK44" s="80">
-        <f t="shared" si="1"/>
-        <v>4109.22</v>
-      </c>
-      <c r="AL44" s="81"/>
-      <c r="AM44" s="82"/>
-      <c r="AN44" s="82"/>
-      <c r="AO44" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(RIGHT(G43,1)=" ","Ошибка, пробел справа!","ок")</f>
         <v>ок</v>
       </c>
     </row>
@@ -3407,20 +3241,20 @@
   <conditionalFormatting sqref="Q2:Q40">
     <cfRule type="duplicateValues" dxfId="5" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q44">
-    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R43:R44">
-    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O37:P37 S37:Z37">
-    <cfRule type="duplicateValues" dxfId="2" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:P42 S42:Z42">
-    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43:P44 S43:Z44">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  <conditionalFormatting sqref="Q43">
+    <cfRule type="duplicateValues" dxfId="2" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="duplicateValues" dxfId="1" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43:P43 S43:Z43">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -642,11 +642,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="29">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center"/>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="E43" sqref="E43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1"/>
@@ -1175,8 +1175,8 @@
     <col width="9.42578125" customWidth="1" style="10" min="37" max="37"/>
     <col width="9.42578125" customWidth="1" style="7" min="38" max="38"/>
     <col width="9.140625" customWidth="1" style="11" min="39" max="40"/>
-    <col width="9.140625" customWidth="1" style="4" min="41" max="43"/>
-    <col width="9.140625" customWidth="1" style="4" min="44" max="16384"/>
+    <col width="9.140625" customWidth="1" style="4" min="41" max="44"/>
+    <col width="9.140625" customWidth="1" style="4" min="45" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -2956,7 +2956,7 @@
       <c r="Z42" s="35" t="n"/>
       <c r="AA42" s="54" t="n"/>
       <c r="AB42" s="35" t="n"/>
-      <c r="AC42" s="92" t="n"/>
+      <c r="AC42" s="91" t="n"/>
       <c r="AD42" s="54" t="n"/>
       <c r="AE42" s="66" t="n"/>
       <c r="AF42" s="67" t="n"/>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F07D846-C531-4984-8FF5-4AA2C4993785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624883CB-A57F-430E-A2D5-141A5128373F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="238">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -629,6 +629,9 @@
     <t>Коллекция</t>
   </si>
   <si>
+    <t>Наименование товара</t>
+  </si>
+  <si>
     <t>Назначение (для чего используется)</t>
   </si>
   <si>
@@ -731,10 +734,16 @@
     <t>Alps</t>
   </si>
   <si>
+    <t>Realistik Alps Glitter Shapetouch Pro 60x120</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>Наименование товара</t>
+    <t>Realistik Amazon Grande Shapetouch 60x120</t>
   </si>
 </sst>
 </file>
@@ -1723,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,8 +1765,8 @@
     <col min="34" max="34" width="9.42578125" style="10" customWidth="1"/>
     <col min="35" max="35" width="9.42578125" style="7" customWidth="1"/>
     <col min="36" max="37" width="9.140625" style="11" customWidth="1"/>
-    <col min="38" max="46" width="9.140625" style="4" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="4"/>
+    <col min="38" max="51" width="9.140625" style="4" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2843,100 +2852,100 @@
         <v>198</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I41" s="57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J41" s="84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O41" s="81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P41" s="81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q41" s="81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R41" s="81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S41" s="81" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T41" s="81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U41" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V41" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W41" s="63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="X41" s="63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y41" s="64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z41" s="89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA41" s="89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB41" s="89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AC41" s="89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AD41" s="65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE41" s="71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF41" s="72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG41" s="73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH41" s="74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AI41" s="75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ41" s="72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK41" s="72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL41" s="91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2944,7 +2953,7 @@
         <v>178</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>74</v>
@@ -2954,16 +2963,16 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" s="35">
-        <v>1</v>
-      </c>
-      <c r="H42" s="26">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>235</v>
       </c>
       <c r="I42" s="45">
         <v>3</v>
@@ -3052,7 +3061,7 @@
     <row r="43" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>74</v>
@@ -3062,16 +3071,16 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" s="90">
-        <v>45292</v>
-      </c>
-      <c r="H43" s="90">
-        <v>45293</v>
+        <v>236</v>
+      </c>
+      <c r="G43" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="90" t="s">
+        <v>235</v>
       </c>
       <c r="I43" s="90">
         <v>45294</v>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -1083,8 +1083,8 @@
   </sheetPr>
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1"/>
@@ -1116,8 +1116,8 @@
     <col width="9.42578125" customWidth="1" style="10" min="34" max="34"/>
     <col width="9.42578125" customWidth="1" style="7" min="35" max="35"/>
     <col width="9.140625" customWidth="1" style="11" min="36" max="37"/>
-    <col width="9.140625" customWidth="1" style="4" min="38" max="51"/>
-    <col width="9.140625" customWidth="1" style="4" min="52" max="16384"/>
+    <col width="9.140625" customWidth="1" style="4" min="38" max="52"/>
+    <col width="9.140625" customWidth="1" style="4" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -2809,8 +2809,10 @@
           <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
         </is>
       </c>
-      <c r="I42" s="45" t="n">
-        <v>3</v>
+      <c r="I42" s="45" t="inlineStr">
+        <is>
+          <t>голубой</t>
+        </is>
       </c>
       <c r="J42" s="49" t="n">
         <v>4</v>
@@ -2931,8 +2933,10 @@
           <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
         </is>
       </c>
-      <c r="I43" s="90" t="n">
-        <v>45294</v>
+      <c r="I43" s="90" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
       </c>
       <c r="J43" s="90" t="n">
         <v>45295</v>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462A7A94-6309-430B-A05F-348CA43269C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A50FF-1EE8-4839-B0A4-CE3049E648E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="273">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -626,6 +626,9 @@
     <t>Назначение (для чего используется)</t>
   </si>
   <si>
+    <t>Материал</t>
+  </si>
+  <si>
     <t>Цвет</t>
   </si>
   <si>
@@ -635,6 +638,9 @@
     <t>Поверхность</t>
   </si>
   <si>
+    <t>Обработка поверхности</t>
+  </si>
+  <si>
     <t>Рисунок</t>
   </si>
   <si>
@@ -677,6 +683,12 @@
     <t>Толщина, мм</t>
   </si>
   <si>
+    <t>Вес 1 шт., кг.</t>
+  </si>
+  <si>
+    <t>Вес упаковки, кг.</t>
+  </si>
+  <si>
     <t>Код поставщика</t>
   </si>
   <si>
@@ -716,6 +728,42 @@
     <t>Проверка на пробел справа!</t>
   </si>
   <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Основной цвет</t>
+  </si>
+  <si>
+    <t>Отражение поверхности</t>
+  </si>
+  <si>
+    <t>Обработка</t>
+  </si>
+  <si>
+    <t>Имитация</t>
+  </si>
+  <si>
+    <t>Морозоустойчивость</t>
+  </si>
+  <si>
+    <t>В упаковке</t>
+  </si>
+  <si>
+    <t>Кол-во м2 в упаковке</t>
+  </si>
+  <si>
+    <t>Толщина мм.</t>
+  </si>
+  <si>
+    <t>Вес 1 шт.</t>
+  </si>
+  <si>
+    <t>Вес упаковки</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-999806/</t>
+  </si>
+  <si>
     <t>Реал-керамика</t>
   </si>
   <si>
@@ -725,10 +773,82 @@
     <t>Amazon</t>
   </si>
   <si>
+    <t>Realistik Amazon Beige Shapetouch 60x120</t>
+  </si>
+  <si>
+    <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>Оттенки бежевого</t>
+  </si>
+  <si>
+    <t>структурированная, ректифицированная</t>
+  </si>
+  <si>
+    <t>под камень / травертин / сланец / гранит</t>
+  </si>
+  <si>
+    <t>прямоугольник</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-999804/</t>
+  </si>
+  <si>
     <t>Realistik Индия</t>
   </si>
   <si>
     <t>Alps</t>
+  </si>
+  <si>
+    <t>Realistik Alps Glitter Shapetouch Pro 60x120</t>
+  </si>
+  <si>
+    <t>голубой</t>
+  </si>
+  <si>
+    <t>Оттенки голубого, Оттенки серого</t>
   </si>
 </sst>
 </file>
@@ -738,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,8 +1034,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,8 +1103,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1159,6 +1292,46 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1202,7 +1375,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1"/>
@@ -1336,7 +1509,6 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,15 +1516,66 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42:J45"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1730,31 +1953,32 @@
     <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="66.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="85" customWidth="1"/>
-    <col min="9" max="10" width="10.5703125" style="82" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="85" customWidth="1"/>
-    <col min="12" max="20" width="12.42578125" style="85" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" style="85" customWidth="1"/>
-    <col min="27" max="27" width="11" style="85" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="85" customWidth="1"/>
-    <col min="29" max="29" width="6.140625" style="85" customWidth="1"/>
-    <col min="30" max="30" width="7.28515625" style="7" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="7" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="7.5703125" style="9" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" style="10" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" style="7" customWidth="1"/>
-    <col min="36" max="37" width="9.140625" style="11" customWidth="1"/>
-    <col min="38" max="63" width="9.140625" style="4" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="14.7109375" style="90" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="90" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" style="82" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" style="90" customWidth="1"/>
+    <col min="14" max="23" width="12.42578125" style="90" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="6" customWidth="1"/>
+    <col min="28" max="30" width="7.28515625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" style="90" customWidth="1"/>
+    <col min="32" max="32" width="11" style="90" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" style="90" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="90" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" style="7" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="7" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" style="8" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="9" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" style="10" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" style="7" customWidth="1"/>
+    <col min="41" max="42" width="9.140625" style="11" customWidth="1"/>
+    <col min="43" max="78" width="9.140625" style="4" customWidth="1"/>
+    <col min="79" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1762,146 +1986,154 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
-      <c r="I1" s="37"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="37"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="14"/>
+      <c r="N1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-    </row>
-    <row r="2" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L2" s="38" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+    </row>
+    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L3" s="38" t="s">
+    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3" s="38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4" s="38" t="s">
+    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L5" s="38" t="s">
+    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L6" s="38" t="s">
+    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L7" s="38" t="s">
+    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L8" s="38" t="s">
+    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L9" s="38" t="s">
+    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L10" s="40" t="s">
+    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10" s="40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L11" s="40" t="s">
+    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11" s="40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L12" s="54" t="s">
+    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="54" t="s">
+      <c r="N13" s="54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="54" t="s">
+      <c r="I14" s="42"/>
+      <c r="N14" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="40" t="s">
+      <c r="O14" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
-    </row>
-    <row r="15" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+    </row>
+    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="54" t="s">
+      <c r="I15" s="42"/>
+      <c r="N15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="40" t="s">
+      <c r="O15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
-    </row>
-    <row r="16" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+    </row>
+    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="I16" s="42"/>
+      <c r="N16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="O16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
-    </row>
-    <row r="17" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+    </row>
+    <row r="17" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
         <v>23</v>
       </c>
@@ -1911,21 +2143,23 @@
       <c r="H17" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="I17" s="42"/>
+      <c r="N17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="O17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
-    </row>
-    <row r="18" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+    </row>
+    <row r="18" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
@@ -1935,21 +2169,23 @@
       <c r="H18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="45" t="s">
+      <c r="I18" s="42"/>
+      <c r="N18" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="O18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
-    </row>
-    <row r="19" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+    </row>
+    <row r="19" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
@@ -1959,14 +2195,14 @@
       <c r="H19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="N19" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="O19" s="58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
@@ -1976,14 +2212,14 @@
       <c r="H20" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="45" t="s">
+      <c r="N20" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="58" t="s">
+      <c r="O20" s="58" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>43</v>
       </c>
@@ -1993,14 +2229,14 @@
       <c r="H21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="N21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="O21" s="58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>48</v>
       </c>
@@ -2010,14 +2246,14 @@
       <c r="H22" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="45" t="s">
+      <c r="N22" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="58" t="s">
+      <c r="O22" s="58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
@@ -2027,14 +2263,14 @@
       <c r="H23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="45" t="s">
+      <c r="N23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="O23" s="58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
         <v>58</v>
       </c>
@@ -2044,14 +2280,14 @@
       <c r="H24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="45" t="s">
+      <c r="N24" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="58" t="s">
+      <c r="O24" s="58" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>63</v>
       </c>
@@ -2061,14 +2297,14 @@
       <c r="H25" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="N25" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="O25" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>68</v>
       </c>
@@ -2078,17 +2314,17 @@
       <c r="H26" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="J26" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="45" t="s">
+      <c r="N26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="58" t="s">
+      <c r="O26" s="58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>74</v>
       </c>
@@ -2098,17 +2334,17 @@
       <c r="H27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="J27" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="N27" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="O27" s="58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15" t="s">
@@ -2120,43 +2356,48 @@
       <c r="H28" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="90"/>
+      <c r="J28" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="83"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="45" t="s">
+      <c r="K28" s="83"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="58" t="s">
+      <c r="O28" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="68"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
       <c r="AI28" s="61"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-    </row>
-    <row r="29" spans="1:37" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+    </row>
+    <row r="29" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="15" t="s">
@@ -2168,43 +2409,48 @@
       <c r="H29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="49" t="s">
+      <c r="I29" s="90"/>
+      <c r="J29" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="83"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="58" t="s">
+      <c r="O29" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="61"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-    </row>
-    <row r="30" spans="1:37" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="68"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="69"/>
+      <c r="AP29" s="69"/>
+    </row>
+    <row r="30" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="15" t="s">
@@ -2216,43 +2462,48 @@
       <c r="H30" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="90"/>
+      <c r="J30" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="45" t="s">
+      <c r="K30" s="83"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="M30" s="58" t="s">
+      <c r="O30" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="61"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-    </row>
-    <row r="31" spans="1:37" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="68"/>
+      <c r="AN30" s="61"/>
+      <c r="AO30" s="69"/>
+      <c r="AP30" s="69"/>
+    </row>
+    <row r="31" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15" t="s">
@@ -2264,45 +2515,50 @@
       <c r="H31" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="90"/>
+      <c r="J31" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="45" t="s">
+      <c r="K31" s="83"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="M31" s="58" t="s">
+      <c r="O31" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="N31" s="50" t="s">
+      <c r="P31" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="61"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
-    </row>
-    <row r="32" spans="1:37" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="68"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="69"/>
+      <c r="AP31" s="69"/>
+    </row>
+    <row r="32" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="15" t="s">
@@ -2314,45 +2570,50 @@
       <c r="H32" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="90"/>
+      <c r="J32" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="45" t="s">
+      <c r="K32" s="83"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="M32" s="58" t="s">
+      <c r="O32" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="N32" s="50" t="s">
+      <c r="P32" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="67"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="61"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-    </row>
-    <row r="33" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="68"/>
+      <c r="AN32" s="61"/>
+      <c r="AO32" s="69"/>
+      <c r="AP32" s="69"/>
+    </row>
+    <row r="33" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="15" t="s">
@@ -2364,45 +2625,50 @@
       <c r="H33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="90"/>
+      <c r="J33" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="83"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="45" t="s">
+      <c r="K33" s="83"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="58" t="s">
+      <c r="O33" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="50" t="s">
+      <c r="P33" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="61"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-    </row>
-    <row r="34" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="68"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="69"/>
+      <c r="AP33" s="69"/>
+    </row>
+    <row r="34" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="15" t="s">
@@ -2414,49 +2680,54 @@
       <c r="H34" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="85"/>
+      <c r="J34" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="M34" s="45"/>
+      <c r="N34" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="87" t="s">
+      <c r="O34" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="N34" s="54" t="s">
+      <c r="P34" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
-      <c r="AB34" s="26" t="s">
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="85"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="67"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="61"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="69"/>
-    </row>
-    <row r="35" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH34" s="90"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="68"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="69"/>
+      <c r="AP34" s="69"/>
+    </row>
+    <row r="35" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
@@ -2468,49 +2739,54 @@
       <c r="H35" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="85"/>
+      <c r="J35" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="55" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="45" t="s">
+      <c r="M35" s="55"/>
+      <c r="N35" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="87" t="s">
+      <c r="O35" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="N35" s="54" t="s">
+      <c r="P35" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="26" t="s">
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="61"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-    </row>
-    <row r="36" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH35" s="90"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="68"/>
+      <c r="AN35" s="61"/>
+      <c r="AO35" s="69"/>
+      <c r="AP35" s="69"/>
+    </row>
+    <row r="36" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
@@ -2522,49 +2798,54 @@
       <c r="H36" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="85"/>
+      <c r="J36" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="87" t="s">
+      <c r="K36" s="49"/>
+      <c r="L36" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="L36" s="45" t="s">
+      <c r="M36" s="86"/>
+      <c r="N36" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="M36" s="87" t="s">
+      <c r="O36" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="N36" s="54" t="s">
+      <c r="P36" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="26" t="s">
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-    </row>
-    <row r="37" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH36" s="90"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="68"/>
+      <c r="AN36" s="61"/>
+      <c r="AO36" s="69"/>
+      <c r="AP36" s="69"/>
+    </row>
+    <row r="37" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="15" t="s">
@@ -2581,51 +2862,56 @@
       <c r="H37" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="85"/>
+      <c r="J37" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="87" t="s">
+      <c r="K37" s="49"/>
+      <c r="L37" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="L37" s="45" t="s">
+      <c r="M37" s="86"/>
+      <c r="N37" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="M37" s="87" t="s">
+      <c r="O37" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="N37" s="54" t="s">
+      <c r="P37" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
-      <c r="AB37" s="26" t="s">
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="AC37" s="50" t="s">
+      <c r="AH37" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="67"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="61"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-    </row>
-    <row r="38" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="69"/>
+      <c r="AP37" s="69"/>
+    </row>
+    <row r="38" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="C38" s="15" t="s">
         <v>155</v>
@@ -2639,53 +2925,58 @@
       <c r="H38" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="85"/>
+      <c r="J38" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="87" t="s">
+      <c r="K38" s="49"/>
+      <c r="L38" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="L38" s="45" t="s">
+      <c r="M38" s="86"/>
+      <c r="N38" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="M38" s="87" t="s">
+      <c r="O38" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="N38" s="54" t="s">
+      <c r="P38" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="26" t="s">
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AC38" s="54" t="s">
+      <c r="AH38" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="70" t="s">
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="61"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="69"/>
-    </row>
-    <row r="39" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="61"/>
+      <c r="AO38" s="69"/>
+      <c r="AP38" s="69"/>
+    </row>
+    <row r="39" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="21"/>
       <c r="C39" s="15" t="s">
@@ -2697,55 +2988,60 @@
       <c r="H39" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="86"/>
+      <c r="J39" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="87" t="s">
+      <c r="K39" s="49"/>
+      <c r="L39" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="L39" s="45" t="s">
+      <c r="M39" s="86"/>
+      <c r="N39" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="M39" s="87" t="s">
+      <c r="O39" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="N39" s="54" t="s">
+      <c r="P39" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="87"/>
       <c r="T39" s="87"/>
       <c r="U39" s="87"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="26" t="s">
+      <c r="V39" s="87"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="AC39" s="54" t="s">
+      <c r="AH39" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="70" t="s">
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="AF39" s="92" t="s">
+      <c r="AK39" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="AG39" s="93"/>
-      <c r="AH39" s="93"/>
-      <c r="AI39" s="94"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="69"/>
-    </row>
-    <row r="40" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL39" s="112"/>
+      <c r="AM39" s="112"/>
+      <c r="AN39" s="113"/>
+      <c r="AO39" s="69"/>
+      <c r="AP39" s="69"/>
+    </row>
+    <row r="40" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="15" t="s">
@@ -2760,58 +3056,63 @@
       <c r="H40" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="58"/>
+      <c r="J40" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="J40" s="49"/>
-      <c r="K40" s="87" t="s">
+      <c r="K40" s="49"/>
+      <c r="L40" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="M40" s="91"/>
+      <c r="N40" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M40" s="50" t="s">
+      <c r="O40" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="N40" s="50" t="s">
+      <c r="P40" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
       <c r="Q40" s="58"/>
-      <c r="R40" s="58" t="s">
-        <v>184</v>
-      </c>
+      <c r="R40" s="58"/>
       <c r="S40" s="58"/>
       <c r="T40" s="58"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="86"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="26" t="s">
+      <c r="U40" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="AC40" s="50" t="s">
+      <c r="AH40" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="70" t="s">
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="AF40" s="95" t="s">
+      <c r="AK40" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="AG40" s="93"/>
-      <c r="AH40" s="94"/>
-      <c r="AJ40" s="96" t="s">
+      <c r="AL40" s="112"/>
+      <c r="AM40" s="113"/>
+      <c r="AO40" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="AK40" s="94"/>
-    </row>
-    <row r="41" spans="1:38" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP40" s="113"/>
+    </row>
+    <row r="41" spans="1:43" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
         <v>190</v>
       </c>
@@ -2836,28 +3137,28 @@
       <c r="H41" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="57" t="s">
+      <c r="I41" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="J41" s="84" t="s">
+      <c r="J41" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="84" t="s">
         <v>200</v>
       </c>
       <c r="L41" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="M41" s="31" t="s">
+      <c r="M41" s="84" t="s">
         <v>202</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="O41" s="81" t="s">
+      <c r="O41" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="P41" s="81" t="s">
+      <c r="P41" s="31" t="s">
         <v>205</v>
       </c>
       <c r="Q41" s="81" t="s">
@@ -2870,213 +3171,391 @@
         <v>208</v>
       </c>
       <c r="T41" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="U41" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="U41" s="31" t="s">
+      <c r="V41" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="V41" s="31" t="s">
+      <c r="W41" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="W41" s="63" t="s">
+      <c r="X41" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="X41" s="63" t="s">
+      <c r="Y41" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" s="64" t="s">
+      <c r="Z41" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="Z41" s="89" t="s">
+      <c r="AA41" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AA41" s="89" t="s">
+      <c r="AB41" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="AB41" s="89" t="s">
+      <c r="AC41" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="AC41" s="89" t="s">
+      <c r="AD41" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="AD41" s="65" t="s">
+      <c r="AE41" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="AE41" s="71" t="s">
+      <c r="AF41" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="AF41" s="72" t="s">
+      <c r="AG41" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="AG41" s="73" t="s">
+      <c r="AH41" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="AH41" s="74" t="s">
+      <c r="AI41" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="AI41" s="75" t="s">
+      <c r="AJ41" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="AJ41" s="72" t="s">
+      <c r="AK41" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="AK41" s="72" t="s">
+      <c r="AL41" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="AL41" s="91" t="s">
+      <c r="AM41" s="74" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="15" t="s">
+      <c r="AN41" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="33" t="str">
-        <f>IF(C42=C$19,D$19,IF(C42=C$20,D$20,IF(C42=C$21,D$21,IF(C42=C$22,D$22,IF(C42=C$23,D$23,IF(C42=C$24,D$24,IF(C42=C$25,D$25,IF(C42=C$26,D$26,IF(C42=C$27,D$27,IF(C42=C$28,D$28,IF(C42=C$29,D$29,IF(C42=C$30,D$30,IF(C42=C$31,D$31,IF(C42=C$32,D$32,IF(C42=C$33,D$33,IF(C42=C$34,D$34,IF(C42=C$35,D$35,IF(C42=C$36,D$36,IF(C42=C$37,D$37,IF(C42=C$38,D$38,IF(C42=C$39,D$39,IF(C42=C$40,D$40,))))))))))))))))))))))</f>
-        <v>Индийская плитка</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="AO41" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="AP41" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF42" s="76">
-        <f>IF(AE42="USD",AD42*64.8306,IF(AE42="EUR",AD42*72.3639,IF(AE42="RUB",AD42,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="77">
-        <v>23.4</v>
-      </c>
-      <c r="AH42" s="78">
-        <f>AF42*(1+AG42/100)</f>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="79"/>
-      <c r="AJ42" s="80">
-        <f>IF(AI42,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="80">
-        <f>IF(AI42,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="16" t="str">
-        <f>IF(RIGHT(G42,1)=" ","Ошибка, пробел справа!","ок")</f>
-        <v>ок</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
+      <c r="AQ41" s="110" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" s="109" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="95"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="I42" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="L42" s="99" t="s">
+        <v>234</v>
+      </c>
+      <c r="M42" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="N42" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="O42" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="P42" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q42" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="R42" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="S42" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="T42" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="U42" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="V42" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="W42" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="X42" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y42" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z42" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA42" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB42" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC42" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD42" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE42" s="103"/>
+      <c r="AF42" s="103"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="104"/>
+      <c r="AJ42" s="104"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="106"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="105"/>
+      <c r="AP42" s="105"/>
+      <c r="AQ42" s="108"/>
+    </row>
+    <row r="43" spans="1:43" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="92" t="s">
+        <v>243</v>
+      </c>
       <c r="B43" s="15" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="33" t="e">
+      <c r="D43" s="33" t="str">
+        <f>IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,))))))))))))))))))))))</f>
+        <v>Индийская плитка</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="J43" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="N43" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="O43" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="P43" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q43" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="R43" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="S43" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="T43" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="U43" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="V43" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="W43" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="X43" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y43" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z43" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA43" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB43" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC43" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD43" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="54"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="70"/>
+      <c r="AK43" s="76"/>
+      <c r="AL43" s="77"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="79"/>
+      <c r="AO43" s="80"/>
+      <c r="AP43" s="80"/>
+      <c r="AQ43" s="16"/>
+    </row>
+    <row r="44" spans="1:43" ht="45" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="33" t="e">
         <f>IF(#REF!=C$19,D$19,IF(#REF!=C$20,D$20,IF(#REF!=C$21,D$21,IF(#REF!=C$22,D$22,IF(#REF!=C$23,D$23,IF(#REF!=C$24,D$24,IF(#REF!=C$25,D$25,IF(#REF!=C$26,D$26,IF(#REF!=C$27,D$27,IF(#REF!=C$28,D$28,IF(#REF!=C$29,D$29,IF(#REF!=C$30,D$30,IF(#REF!=C$31,D$31,IF(#REF!=C$32,D$32,IF(#REF!=C$33,D$33,IF(#REF!=C$34,D$34,IF(#REF!=C$35,D$35,IF(#REF!=C$36,D$36,IF(#REF!=C$37,D$37,IF(#REF!=C$38,D$38,IF(#REF!=C$39,D$39,IF(#REF!=C$40,D$40,))))))))))))))))))))))</f>
         <v>#REF!</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="36"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF43" s="76" t="e">
-        <f>IF(#REF!="USD",#REF!*64.8306,IF(#REF!="EUR",#REF!*72.3639,IF(#REF!="RUB",#REF!,0)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG43" s="77">
-        <v>23.4</v>
-      </c>
-      <c r="AH43" s="78" t="e">
-        <f>#REF!*(1+#REF!/100)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI43" s="79"/>
-      <c r="AJ43" s="80" t="e">
-        <f>IF(#REF!,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK43" s="80" t="e">
-        <f>IF(#REF!,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL43" s="16" t="e">
-        <f>IF(RIGHT(#REF!,1)=" ","Ошибка, пробел справа!","ок")</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E44" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="L44" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="M44" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="N44" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="O44" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q44" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="R44" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="S44" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="T44" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="U44" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="V44" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="W44" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="X44" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y44" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z44" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA44" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB44" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC44" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD44" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="54"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="79"/>
+      <c r="AO44" s="80"/>
+      <c r="AP44" s="80"/>
+      <c r="AQ44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AF39:AI39"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AK39:AN39"/>
+    <mergeCell ref="AO40:AP40"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:L40">
+  <conditionalFormatting sqref="N2:N40">
     <cfRule type="duplicateValues" dxfId="1" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37:T37">
+  <conditionalFormatting sqref="I37 P37:W37">
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356A50FF-1EE8-4839-B0A4-CE3049E648E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F6D93-6C4A-4529-9EDF-F2871C7D5DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="271">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -419,6 +419,9 @@
     <t>Тунисская плитка</t>
   </si>
   <si>
+    <t>Декор</t>
+  </si>
+  <si>
     <t>Для кухни</t>
   </si>
   <si>
@@ -437,15 +440,15 @@
     <t>Шестиугольник (гексагон, соты)</t>
   </si>
   <si>
-    <t>Декор</t>
-  </si>
-  <si>
     <t>Турция</t>
   </si>
   <si>
     <t>Турецкая плитка</t>
   </si>
   <si>
+    <t>Бордюр</t>
+  </si>
+  <si>
     <t>Напольная плитка</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
     <t>Восьмиугольник (октагон)</t>
   </si>
   <si>
-    <t>Бордюр</t>
-  </si>
-  <si>
     <t>Украина</t>
   </si>
   <si>
@@ -533,6 +533,12 @@
     <t>Чешская плитка</t>
   </si>
   <si>
+    <t>Belleza</t>
+  </si>
+  <si>
+    <t>Corten</t>
+  </si>
+  <si>
     <t>Клинкер (ступени)</t>
   </si>
   <si>
@@ -566,6 +572,9 @@
     <t>Вьетнамская плитка</t>
   </si>
   <si>
+    <t>Ступени</t>
+  </si>
+  <si>
     <t>Плитка для бассейна</t>
   </si>
   <si>
@@ -587,9 +596,6 @@
     <t>R 9</t>
   </si>
   <si>
-    <t>Ступени</t>
-  </si>
-  <si>
     <t>компл.</t>
   </si>
   <si>
@@ -623,6 +629,9 @@
     <t>Наименование товара</t>
   </si>
   <si>
+    <t>Группа (это в зависимости от функции плитки в коллекции)</t>
+  </si>
+  <si>
     <t>Назначение (для чего используется)</t>
   </si>
   <si>
@@ -695,9 +704,6 @@
     <t>Артикул товара</t>
   </si>
   <si>
-    <t>Группа (это в зависимости от функции плитки в коллекции)</t>
-  </si>
-  <si>
     <t>единица измерения</t>
   </si>
   <si>
@@ -719,6 +725,9 @@
     <t>Рек. цена</t>
   </si>
   <si>
+    <t>Цена 3dplitka.ru</t>
+  </si>
+  <si>
     <t>Скидка</t>
   </si>
   <si>
@@ -788,7 +797,7 @@
     <t>структурированная, ректифицированная</t>
   </si>
   <si>
-    <t>под камень / травертин / сланец / гранит</t>
+    <t>под камень, травертин, сланец, гранит</t>
   </si>
   <si>
     <t>прямоугольник</t>
@@ -833,32 +842,18 @@
     <t>34</t>
   </si>
   <si>
-    <t>https://3dplitka.ru/product-999804/</t>
-  </si>
-  <si>
-    <t>Realistik Индия</t>
-  </si>
-  <si>
-    <t>Alps</t>
-  </si>
-  <si>
-    <t>Realistik Alps Glitter Shapetouch Pro 60x120</t>
-  </si>
-  <si>
-    <t>голубой</t>
-  </si>
-  <si>
-    <t>Оттенки голубого, Оттенки серого</t>
+    <t>3330</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1041,8 +1036,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,12 +1115,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1325,17 +1341,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="top"/>
@@ -1374,8 +1381,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1"/>
@@ -1423,7 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1518,57 +1525,61 @@
     <xf numFmtId="16" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="12" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="35" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,7 +1593,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="36">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1618,6 +1629,7 @@
     <cellStyle name="Обычный 2 76 34 151" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Обычный 2 76 34 151 61" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Обычный 3 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Финансовый" xfId="35" builtinId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1938,9 +1950,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ44"/>
+  <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
@@ -1953,29 +1965,29 @@
     <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="66.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="90" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="90" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" style="82" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" style="90" customWidth="1"/>
-    <col min="14" max="23" width="12.42578125" style="90" customWidth="1"/>
-    <col min="24" max="24" width="6.140625" style="5" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="6" customWidth="1"/>
-    <col min="28" max="30" width="7.28515625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" style="90" customWidth="1"/>
-    <col min="32" max="32" width="11" style="90" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" style="90" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="90" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="89" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="89" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="89" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="81" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" style="89" customWidth="1"/>
+    <col min="15" max="24" width="12.42578125" style="89" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="6" customWidth="1"/>
+    <col min="29" max="31" width="7.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="89" customWidth="1"/>
+    <col min="33" max="33" width="11" style="89" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="89" customWidth="1"/>
     <col min="35" max="35" width="7.28515625" style="7" customWidth="1"/>
     <col min="36" max="36" width="6.7109375" style="7" customWidth="1"/>
     <col min="37" max="37" width="8.140625" style="8" customWidth="1"/>
     <col min="38" max="38" width="7.5703125" style="9" customWidth="1"/>
     <col min="39" max="39" width="9.42578125" style="10" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" style="7" customWidth="1"/>
-    <col min="41" max="42" width="9.140625" style="11" customWidth="1"/>
-    <col min="43" max="78" width="9.140625" style="4" customWidth="1"/>
-    <col min="79" max="16384" width="9.140625" style="4"/>
+    <col min="40" max="41" width="9.42578125" style="7" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="11" customWidth="1"/>
+    <col min="44" max="56" width="9.140625" style="4" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,13 +1999,13 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="14"/>
-      <c r="N1" s="38" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="14"/>
+      <c r="O1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -2002,349 +2014,349 @@
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AE1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
     <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="38" t="s">
+      <c r="O5" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N6" s="38" t="s">
+      <c r="O6" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N7" s="38" t="s">
+      <c r="O7" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N8" s="38" t="s">
+      <c r="O8" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N9" s="38" t="s">
+      <c r="O9" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N11" s="40" t="s">
+      <c r="O11" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N12" s="54" t="s">
+      <c r="O12" s="53" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="41" t="s">
+      <c r="I13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="O13" s="53" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H14" s="41" t="s">
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="N14" s="54" t="s">
+      <c r="J14" s="41"/>
+      <c r="O14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="P14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
     </row>
     <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="43" t="s">
+      <c r="I15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="N15" s="54" t="s">
+      <c r="J15" s="41"/>
+      <c r="O15" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
     </row>
     <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H16" s="44" t="s">
+      <c r="I16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="N16" s="45" t="s">
+      <c r="J16" s="41"/>
+      <c r="O16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="40" t="s">
+      <c r="P16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-    </row>
-    <row r="17" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+    </row>
+    <row r="17" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="I17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="N17" s="45" t="s">
+      <c r="J17" s="41"/>
+      <c r="O17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="P17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-    </row>
-    <row r="18" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+    </row>
+    <row r="18" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="N18" s="45" t="s">
+      <c r="J18" s="41"/>
+      <c r="O18" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="P18" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-    </row>
-    <row r="19" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+    </row>
+    <row r="19" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="I19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="O19" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="P19" s="57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="I20" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="O20" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="P20" s="57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="O21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="P21" s="57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="I22" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="O22" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="58" t="s">
+      <c r="P22" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="I23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="O23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="P23" s="57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="45" t="s">
+      <c r="O24" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="58" t="s">
+      <c r="P24" s="57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="I25" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="N25" s="45" t="s">
+      <c r="O25" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="58" t="s">
+      <c r="P25" s="57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="I26" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="K26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="N26" s="45" t="s">
+      <c r="O26" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="O26" s="58" t="s">
+      <c r="P26" s="57" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="K27" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="O27" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="O27" s="58" t="s">
+      <c r="P27" s="57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="15" t="s">
@@ -2353,51 +2365,52 @@
       <c r="D28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="89"/>
+      <c r="I28" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="90"/>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="89"/>
+      <c r="K28" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="45" t="s">
+      <c r="L28" s="82"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="O28" s="58" t="s">
+      <c r="P28" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="5"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="5"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="68"/>
-      <c r="AN28" s="61"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-    </row>
-    <row r="29" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL28" s="66"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+    </row>
+    <row r="29" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="15" t="s">
@@ -2406,51 +2419,52 @@
       <c r="D29" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="89"/>
+      <c r="I29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="90"/>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="89"/>
+      <c r="K29" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="45" t="s">
+      <c r="L29" s="82"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="58" t="s">
+      <c r="P29" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="5"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="5"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="89"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="89"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="68"/>
-      <c r="AN29" s="61"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-    </row>
-    <row r="30" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL29" s="66"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="60"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="68"/>
+    </row>
+    <row r="30" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="15" t="s">
@@ -2459,51 +2473,52 @@
       <c r="D30" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="89"/>
+      <c r="I30" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="90"/>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="89"/>
+      <c r="K30" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="45" t="s">
+      <c r="L30" s="82"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="O30" s="58" t="s">
+      <c r="P30" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="5"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
+      <c r="Z30" s="5"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="68"/>
-      <c r="AN30" s="61"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-    </row>
-    <row r="31" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="67"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="68"/>
+    </row>
+    <row r="31" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15" t="s">
@@ -2512,53 +2527,54 @@
       <c r="D31" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="89"/>
+      <c r="I31" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="90"/>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="89"/>
+      <c r="K31" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K31" s="83"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="45" t="s">
+      <c r="L31" s="82"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="O31" s="58" t="s">
+      <c r="P31" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="P31" s="50" t="s">
+      <c r="Q31" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="5"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="5"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="68"/>
-      <c r="AN31" s="61"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-    </row>
-    <row r="32" spans="1:42" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="67"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+    </row>
+    <row r="32" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="15" t="s">
@@ -2567,53 +2583,54 @@
       <c r="D32" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="22"/>
+      <c r="I32" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="90"/>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="89"/>
+      <c r="K32" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="45" t="s">
+      <c r="L32" s="82"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="O32" s="58" t="s">
+      <c r="P32" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="P32" s="50" t="s">
+      <c r="Q32" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="5"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="5"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="22"/>
+      <c r="AE32" s="6"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
-      <c r="AH32" s="90"/>
+      <c r="AH32" s="89"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="67"/>
-      <c r="AM32" s="68"/>
-      <c r="AN32" s="61"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-    </row>
-    <row r="33" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="60"/>
+      <c r="AO32" s="60"/>
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="68"/>
+    </row>
+    <row r="33" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="15" t="s">
@@ -2622,53 +2639,54 @@
       <c r="D33" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="22"/>
+      <c r="I33" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="89"/>
+      <c r="K33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="45" t="s">
+      <c r="L33" s="82"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="O33" s="58" t="s">
+      <c r="P33" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="P33" s="50" t="s">
+      <c r="Q33" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="5"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6"/>
-      <c r="AE33" s="22"/>
+      <c r="AE33" s="6"/>
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
-      <c r="AH33" s="90"/>
+      <c r="AH33" s="89"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="68"/>
-      <c r="AN33" s="61"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-    </row>
-    <row r="34" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="60"/>
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="68"/>
+    </row>
+    <row r="34" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="15" t="s">
@@ -2677,57 +2695,58 @@
       <c r="D34" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="85"/>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="84"/>
+      <c r="K34" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="44"/>
+      <c r="M34" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="44"/>
+      <c r="O34" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="O34" s="86" t="s">
+      <c r="P34" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="P34" s="54" t="s">
+      <c r="Q34" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="5"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="6"/>
+      <c r="Z34" s="5"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
       <c r="AD34" s="6"/>
-      <c r="AE34" s="22"/>
+      <c r="AE34" s="6"/>
       <c r="AF34" s="22"/>
-      <c r="AG34" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH34" s="90"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="89"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="67"/>
-      <c r="AM34" s="68"/>
-      <c r="AN34" s="61"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-    </row>
-    <row r="35" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="68"/>
+    </row>
+    <row r="35" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="15" t="s">
@@ -2736,57 +2755,58 @@
       <c r="D35" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="45" t="s">
+      <c r="I35" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K35" s="45"/>
-      <c r="L35" s="55" t="s">
+      <c r="J35" s="84"/>
+      <c r="K35" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="45" t="s">
+      <c r="L35" s="44"/>
+      <c r="M35" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="O35" s="86" t="s">
+      <c r="N35" s="54"/>
+      <c r="O35" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="P35" s="54" t="s">
+      <c r="P35" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="5"/>
+      <c r="Q35" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="6"/>
+      <c r="Z35" s="5"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="22"/>
+      <c r="AE35" s="6"/>
       <c r="AF35" s="22"/>
-      <c r="AG35" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH35" s="90"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="89"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="67"/>
-      <c r="AM35" s="68"/>
-      <c r="AN35" s="61"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-    </row>
-    <row r="36" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="68"/>
+      <c r="AQ35" s="68"/>
+    </row>
+    <row r="36" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="15" t="s">
@@ -2795,57 +2815,58 @@
       <c r="D36" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="85"/>
-      <c r="J36" s="45" t="s">
+      <c r="I36" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="86" t="s">
+      <c r="J36" s="84"/>
+      <c r="K36" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="M36" s="86"/>
-      <c r="N36" s="45" t="s">
+      <c r="L36" s="48"/>
+      <c r="M36" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="O36" s="86" t="s">
+      <c r="N36" s="85"/>
+      <c r="O36" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="P36" s="54" t="s">
+      <c r="P36" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="5"/>
+      <c r="Q36" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="5"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
-      <c r="AE36" s="22"/>
+      <c r="AE36" s="6"/>
       <c r="AF36" s="22"/>
-      <c r="AG36" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH36" s="90"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="89"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="68"/>
-      <c r="AN36" s="61"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-    </row>
-    <row r="37" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="68"/>
+      <c r="AQ36" s="68"/>
+    </row>
+    <row r="37" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="15" t="s">
@@ -2859,59 +2880,60 @@
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="85"/>
-      <c r="J37" s="45" t="s">
+      <c r="I37" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="J37" s="84"/>
+      <c r="K37" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="86" t="s">
+      <c r="L37" s="48"/>
+      <c r="M37" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="M37" s="86"/>
-      <c r="N37" s="45" t="s">
+      <c r="N37" s="85"/>
+      <c r="O37" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="O37" s="86" t="s">
+      <c r="P37" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="54" t="s">
+      <c r="Q37" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="5"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="22"/>
+      <c r="AE37" s="6"/>
       <c r="AF37" s="22"/>
-      <c r="AG37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH37" s="50" t="s">
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="49" t="s">
         <v>154</v>
       </c>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="67"/>
-      <c r="AM37" s="68"/>
-      <c r="AN37" s="61"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="69"/>
-    </row>
-    <row r="38" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+    </row>
+    <row r="38" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="C38" s="15" t="s">
         <v>155</v>
@@ -2922,61 +2944,62 @@
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="I38" s="85"/>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="84"/>
+      <c r="K38" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="49"/>
-      <c r="L38" s="86" t="s">
+      <c r="L38" s="48"/>
+      <c r="M38" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="M38" s="86"/>
-      <c r="N38" s="45" t="s">
+      <c r="N38" s="85"/>
+      <c r="O38" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="O38" s="86" t="s">
+      <c r="P38" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="P38" s="54" t="s">
+      <c r="Q38" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="6"/>
+      <c r="R38" s="84"/>
+      <c r="S38" s="84"/>
+      <c r="T38" s="84"/>
+      <c r="U38" s="84"/>
+      <c r="V38" s="84"/>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="84"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="22"/>
+      <c r="AE38" s="6"/>
       <c r="AF38" s="22"/>
-      <c r="AG38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH38" s="54" t="s">
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="53" t="s">
         <v>163</v>
       </c>
       <c r="AI38" s="5"/>
-      <c r="AJ38" s="70" t="s">
+      <c r="AJ38" s="69" t="s">
         <v>164</v>
       </c>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="68"/>
-      <c r="AN38" s="61"/>
-      <c r="AO38" s="69"/>
-      <c r="AP38" s="69"/>
-    </row>
-    <row r="39" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="68"/>
+      <c r="AQ38" s="68"/>
+    </row>
+    <row r="39" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="21"/>
       <c r="C39" s="15" t="s">
@@ -2985,361 +3008,371 @@
       <c r="D39" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="E39" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="45" t="s">
+      <c r="F39" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="86" t="s">
+      <c r="H39" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="M39" s="86"/>
-      <c r="N39" s="45" t="s">
+      <c r="J39" s="85"/>
+      <c r="K39" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="O39" s="86" t="s">
+      <c r="L39" s="48"/>
+      <c r="M39" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="P39" s="54" t="s">
+      <c r="N39" s="85"/>
+      <c r="O39" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
+      <c r="P39" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q39" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
       <c r="W39" s="86"/>
-      <c r="X39" s="86"/>
+      <c r="X39" s="85"/>
       <c r="Y39" s="85"/>
-      <c r="Z39" s="6"/>
+      <c r="Z39" s="84"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="22"/>
+      <c r="AE39" s="6"/>
       <c r="AF39" s="22"/>
-      <c r="AG39" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH39" s="54" t="s">
-        <v>173</v>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="AI39" s="5"/>
-      <c r="AJ39" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK39" s="114" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL39" s="112"/>
-      <c r="AM39" s="112"/>
-      <c r="AN39" s="113"/>
-      <c r="AO39" s="69"/>
-      <c r="AP39" s="69"/>
-    </row>
-    <row r="40" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK39" s="115" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="114"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="68"/>
+    </row>
+    <row r="40" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="58"/>
-      <c r="J40" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="K40" s="49"/>
-      <c r="L40" s="86" t="s">
+      <c r="H40" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="M40" s="91"/>
-      <c r="N40" s="59" t="s">
+      <c r="I40" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="O40" s="50" t="s">
+      <c r="J40" s="57"/>
+      <c r="K40" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="P40" s="50" t="s">
+      <c r="L40" s="48"/>
+      <c r="M40" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58" t="s">
+      <c r="N40" s="90"/>
+      <c r="O40" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="86"/>
+      <c r="P40" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
       <c r="Y40" s="85"/>
-      <c r="Z40" s="6"/>
+      <c r="Z40" s="84"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="29"/>
+      <c r="AE40" s="6"/>
       <c r="AF40" s="29"/>
-      <c r="AG40" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH40" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK40" s="111" t="s">
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="AL40" s="112"/>
-      <c r="AM40" s="113"/>
-      <c r="AO40" s="115" t="s">
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="AP40" s="113"/>
-    </row>
-    <row r="41" spans="1:43" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK40" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="114"/>
+      <c r="AP40" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ40" s="114"/>
+    </row>
+    <row r="41" spans="1:44" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="I41" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="K41" s="84" t="s">
+      <c r="I41" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="L41" s="31" t="s">
+      <c r="J41" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="M41" s="84" t="s">
+      <c r="K41" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="N41" s="31" t="s">
+      <c r="L41" s="83" t="s">
         <v>203</v>
       </c>
+      <c r="M41" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="N41" s="83" t="s">
+        <v>205</v>
+      </c>
       <c r="O41" s="31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q41" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="R41" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="S41" s="81" t="s">
+      <c r="Q41" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="T41" s="81" t="s">
+      <c r="R41" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="S41" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="T41" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="U41" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="U41" s="81" t="s">
+      <c r="V41" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="W41" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="X41" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y41" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z41" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA41" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB41" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC41" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD41" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE41" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF41" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG41" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH41" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI41" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ41" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK41" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL41" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM41" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN41" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO41" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP41" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ41" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR41" s="107" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" s="92" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="93"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="J42" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="L42" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="M42" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="N42" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="P42" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q42" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="R42" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="V41" s="81" t="s">
+      <c r="S42" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="W41" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="X41" s="31" t="s">
+      <c r="T42" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="U42" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="V42" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="Y41" s="31" t="s">
+      <c r="W42" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" s="63" t="s">
+      <c r="X42" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="AA41" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB41" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC41" s="81" t="s">
+      <c r="Y42" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z42" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA42" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="AD41" s="81" t="s">
+      <c r="AB42" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="AE41" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF41" s="88" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG41" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH41" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI41" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ41" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK41" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL41" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM41" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN41" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO41" s="72" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP41" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ41" s="110" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" s="109" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="95"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="I42" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="J42" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="K42" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="L42" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="M42" s="100" t="s">
-        <v>235</v>
-      </c>
-      <c r="N42" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="O42" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="P42" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q42" s="99" t="s">
-        <v>206</v>
-      </c>
-      <c r="R42" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="S42" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="T42" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="U42" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="V42" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="W42" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="X42" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y42" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z42" s="101" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA42" s="101" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB42" s="101" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC42" s="102" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD42" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="103"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-      <c r="AI42" s="104"/>
-      <c r="AJ42" s="104"/>
-      <c r="AK42" s="105"/>
-      <c r="AL42" s="106"/>
-      <c r="AM42" s="107"/>
-      <c r="AN42" s="104"/>
-      <c r="AO42" s="105"/>
-      <c r="AP42" s="105"/>
-      <c r="AQ42" s="108"/>
-    </row>
-    <row r="43" spans="1:43" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92" t="s">
+      <c r="AC42" s="99" t="s">
         <v>243</v>
       </c>
+      <c r="AD42" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE42" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF42" s="101"/>
+      <c r="AG42" s="101"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="102"/>
+      <c r="AJ42" s="102"/>
+      <c r="AK42" s="103"/>
+      <c r="AL42" s="104"/>
+      <c r="AM42" s="105"/>
+      <c r="AN42" s="102"/>
+      <c r="AO42" s="102"/>
+      <c r="AP42" s="103"/>
+      <c r="AQ42" s="103"/>
+      <c r="AR42" s="106"/>
+    </row>
+    <row r="43" spans="1:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="110" t="s">
+        <v>246</v>
+      </c>
       <c r="B43" s="15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>74</v>
@@ -3349,215 +3382,117 @@
         <v>Индийская плитка</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="G43" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="H43" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="I43" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="J43" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="K43" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="L43" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="M43" s="89" t="s">
+      <c r="I43" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="N43" s="89" t="s">
+      <c r="J43" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="O43" s="89" t="s">
+      <c r="L43" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="M43" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="P43" s="89" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q43" s="89" t="s">
-        <v>254</v>
-      </c>
-      <c r="R43" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="S43" s="89" t="s">
+      <c r="Q43" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="T43" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="U43" s="89" t="s">
+      <c r="R43" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="V43" s="89" t="s">
+      <c r="S43" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="W43" s="89" t="s">
+      <c r="T43" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="X43" s="89" t="s">
+      <c r="U43" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="V43" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="Y43" s="89" t="s">
+      <c r="W43" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="Z43" s="89" t="s">
+      <c r="X43" s="88" t="s">
         <v>262</v>
       </c>
-      <c r="AA43" s="89" t="s">
+      <c r="Y43" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="AB43" s="89" t="s">
+      <c r="Z43" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="AC43" s="93" t="s">
+      <c r="AA43" s="88" t="s">
         <v>265</v>
       </c>
-      <c r="AD43" s="93" t="s">
+      <c r="AB43" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="76"/>
-      <c r="AL43" s="77"/>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="79"/>
-      <c r="AO43" s="80"/>
-      <c r="AP43" s="80"/>
-      <c r="AQ43" s="16"/>
-    </row>
-    <row r="44" spans="1:43" ht="45" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="AC43" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="33" t="e">
-        <f>IF(#REF!=C$19,D$19,IF(#REF!=C$20,D$20,IF(#REF!=C$21,D$21,IF(#REF!=C$22,D$22,IF(#REF!=C$23,D$23,IF(#REF!=C$24,D$24,IF(#REF!=C$25,D$25,IF(#REF!=C$26,D$26,IF(#REF!=C$27,D$27,IF(#REF!=C$28,D$28,IF(#REF!=C$29,D$29,IF(#REF!=C$30,D$30,IF(#REF!=C$31,D$31,IF(#REF!=C$32,D$32,IF(#REF!=C$33,D$33,IF(#REF!=C$34,D$34,IF(#REF!=C$35,D$35,IF(#REF!=C$36,D$36,IF(#REF!=C$37,D$37,IF(#REF!=C$38,D$38,IF(#REF!=C$39,D$39,IF(#REF!=C$40,D$40,))))))))))))))))))))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="AD43" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="AE43" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="53"/>
+      <c r="AI43" s="65"/>
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="75"/>
+      <c r="AL43" s="76"/>
+      <c r="AM43" s="77"/>
+      <c r="AN43" s="78"/>
+      <c r="AO43" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="J44" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="K44" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="L44" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="M44" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="N44" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="O44" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="P44" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q44" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="R44" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="S44" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="T44" s="86" t="s">
-        <v>256</v>
-      </c>
-      <c r="U44" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="V44" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="W44" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="X44" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y44" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z44" s="86" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA44" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB44" s="86" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC44" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD44" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="77"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="79"/>
-      <c r="AO44" s="80"/>
-      <c r="AP44" s="80"/>
-      <c r="AQ44" s="16"/>
+      <c r="AP43" s="79"/>
+      <c r="AQ43" s="79"/>
+      <c r="AR43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AK40:AM40"/>
     <mergeCell ref="AK39:AN39"/>
-    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="AP40:AQ40"/>
   </mergeCells>
-  <conditionalFormatting sqref="N2:N40">
+  <conditionalFormatting sqref="O2:O40">
     <cfRule type="duplicateValues" dxfId="1" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37 P37:W37">
+  <conditionalFormatting sqref="J37 Q37:X37">
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5F6D93-6C4A-4529-9EDF-F2871C7D5DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47587414-635D-4F2C-B0E7-4DF716E959A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="271">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -770,79 +762,79 @@
     <t>Вес упаковки</t>
   </si>
   <si>
-    <t>https://3dplitka.ru/product-999806/</t>
-  </si>
-  <si>
-    <t>Реал-керамика</t>
-  </si>
-  <si>
-    <t>Realistik</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Realistik Amazon Beige Shapetouch 60x120</t>
-  </si>
-  <si>
-    <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
-  </si>
-  <si>
-    <t>бежевый</t>
+    <t>https://3dplitka.ru/product-999938/</t>
+  </si>
+  <si>
+    <t>Мир Керамики</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Оттенки бежевого, Оттенки коричневого</t>
+  </si>
+  <si>
+    <t>структурированная, натуральная, ректифицированная</t>
+  </si>
+  <si>
+    <t>под камень, травертин, сланец, гранит</t>
+  </si>
+  <si>
+    <t>прямоугольник</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>R 10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-999953/</t>
+  </si>
+  <si>
+    <t>Latin</t>
   </si>
   <si>
     <t>Оттенки бежевого</t>
   </si>
   <si>
-    <t>структурированная, ректифицированная</t>
-  </si>
-  <si>
-    <t>под камень, травертин, сланец, гранит</t>
-  </si>
-  <si>
-    <t>прямоугольник</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>R 10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>3330</t>
+    <t>4170</t>
   </si>
 </sst>
 </file>
@@ -853,11 +845,19 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -1344,252 +1344,251 @@
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="27" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="27" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="19" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="27" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="32" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="27" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="27" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="18" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="15" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="11" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="11" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="11" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="12" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="12" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="35" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1950,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR43"/>
+  <dimension ref="A1:AR44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="K44" sqref="G43:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1965,20 +1964,20 @@
     <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="66.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="89" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="89" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="89" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" style="81" customWidth="1"/>
-    <col min="13" max="14" width="13.85546875" style="89" customWidth="1"/>
-    <col min="15" max="24" width="12.42578125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="87" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="87" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="87" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="79" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" style="87" customWidth="1"/>
+    <col min="15" max="24" width="12.42578125" style="87" customWidth="1"/>
     <col min="25" max="25" width="6.140625" style="5" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" style="5" customWidth="1"/>
     <col min="27" max="27" width="8.42578125" style="6" customWidth="1"/>
     <col min="28" max="28" width="7.7109375" style="6" customWidth="1"/>
     <col min="29" max="31" width="7.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="89" customWidth="1"/>
-    <col min="33" max="33" width="11" style="89" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="89" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="87" customWidth="1"/>
+    <col min="33" max="33" width="11" style="87" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="87" customWidth="1"/>
     <col min="35" max="35" width="7.28515625" style="7" customWidth="1"/>
     <col min="36" max="36" width="6.7109375" style="7" customWidth="1"/>
     <col min="37" max="37" width="8.140625" style="8" customWidth="1"/>
@@ -1986,8 +1985,8 @@
     <col min="39" max="39" width="9.42578125" style="10" customWidth="1"/>
     <col min="40" max="41" width="9.42578125" style="7" customWidth="1"/>
     <col min="42" max="43" width="9.140625" style="11" customWidth="1"/>
-    <col min="44" max="56" width="9.140625" style="4" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="4"/>
+    <col min="44" max="59" width="9.140625" style="4" customWidth="1"/>
+    <col min="60" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2000,10 +1999,10 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="14"/>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="14"/>
@@ -2015,135 +2014,135 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
     <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="O14" s="53" t="s">
+      <c r="J14" s="39"/>
+      <c r="O14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
     </row>
     <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="O15" s="53" t="s">
+      <c r="J15" s="39"/>
+      <c r="O15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
     </row>
     <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="O16" s="44" t="s">
+      <c r="J16" s="39"/>
+      <c r="O16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
     </row>
     <row r="17" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
@@ -2152,24 +2151,24 @@
       <c r="D17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="O17" s="44" t="s">
+      <c r="J17" s="39"/>
+      <c r="O17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
     </row>
     <row r="18" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
@@ -2181,21 +2180,21 @@
       <c r="I18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="O18" s="44" t="s">
+      <c r="J18" s="39"/>
+      <c r="O18" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
     </row>
     <row r="19" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
@@ -2207,10 +2206,10 @@
       <c r="I19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="44" t="s">
+      <c r="O19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="57" t="s">
+      <c r="P19" s="55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2221,13 +2220,13 @@
       <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="P20" s="55" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2241,10 +2240,10 @@
       <c r="I21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="55" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2258,10 +2257,10 @@
       <c r="I22" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="44" t="s">
+      <c r="O22" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="55" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2275,10 +2274,10 @@
       <c r="I23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="44" t="s">
+      <c r="O23" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="57" t="s">
+      <c r="P23" s="55" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2292,10 +2291,10 @@
       <c r="I24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="57" t="s">
+      <c r="P24" s="55" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2309,10 +2308,10 @@
       <c r="I25" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="44" t="s">
+      <c r="O25" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="57" t="s">
+      <c r="P25" s="55" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2326,13 +2325,13 @@
       <c r="I26" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="44" t="s">
+      <c r="O26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="57" t="s">
+      <c r="P26" s="55" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2346,13 +2345,13 @@
       <c r="I27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="O27" s="44" t="s">
+      <c r="O27" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="P27" s="57" t="s">
+      <c r="P27" s="55" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2365,31 +2364,31 @@
       <c r="D28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="89"/>
+      <c r="H28" s="87"/>
       <c r="I28" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="89"/>
-      <c r="K28" s="47" t="s">
+      <c r="J28" s="87"/>
+      <c r="K28" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="44" t="s">
+      <c r="L28" s="80"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="6"/>
@@ -2397,18 +2396,18 @@
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="58"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="67"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="60"/>
-      <c r="AP28" s="68"/>
-      <c r="AQ28" s="68"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="58"/>
+      <c r="AO28" s="58"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
     </row>
     <row r="29" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -2419,31 +2418,31 @@
       <c r="D29" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="89"/>
+      <c r="H29" s="87"/>
       <c r="I29" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="89"/>
-      <c r="K29" s="48" t="s">
+      <c r="J29" s="87"/>
+      <c r="K29" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="44" t="s">
+      <c r="L29" s="80"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="P29" s="57" t="s">
+      <c r="P29" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="6"/>
@@ -2451,18 +2450,18 @@
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="6"/>
-      <c r="AF29" s="89"/>
-      <c r="AG29" s="89"/>
-      <c r="AH29" s="89"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AP29" s="68"/>
-      <c r="AQ29" s="68"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="58"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
     </row>
     <row r="30" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
@@ -2473,31 +2472,31 @@
       <c r="D30" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="35" t="s">
+      <c r="H30" s="87"/>
+      <c r="I30" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="89"/>
-      <c r="K30" s="44" t="s">
+      <c r="J30" s="87"/>
+      <c r="K30" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="44" t="s">
+      <c r="L30" s="80"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="P30" s="57" t="s">
+      <c r="P30" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="6"/>
@@ -2505,18 +2504,18 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="6"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
-      <c r="AP30" s="68"/>
-      <c r="AQ30" s="68"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="58"/>
+      <c r="AO30" s="58"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
     </row>
     <row r="31" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
@@ -2527,33 +2526,33 @@
       <c r="D31" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="35" t="s">
+      <c r="H31" s="87"/>
+      <c r="I31" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="89"/>
-      <c r="K31" s="44" t="s">
+      <c r="J31" s="87"/>
+      <c r="K31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="44" t="s">
+      <c r="L31" s="80"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="P31" s="57" t="s">
+      <c r="P31" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="Q31" s="49" t="s">
+      <c r="Q31" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="6"/>
@@ -2561,18 +2560,18 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="60"/>
-      <c r="AO31" s="60"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="58"/>
+      <c r="AO31" s="58"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
     </row>
     <row r="32" spans="1:43" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
@@ -2584,32 +2583,32 @@
         <v>106</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="89"/>
-      <c r="K32" s="44" t="s">
+      <c r="J32" s="87"/>
+      <c r="K32" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="L32" s="82"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="44" t="s">
+      <c r="L32" s="80"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="Q32" s="49" t="s">
+      <c r="Q32" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="6"/>
@@ -2619,16 +2618,16 @@
       <c r="AE32" s="6"/>
       <c r="AF32" s="22"/>
       <c r="AG32" s="22"/>
-      <c r="AH32" s="89"/>
+      <c r="AH32" s="87"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-      <c r="AP32" s="68"/>
-      <c r="AQ32" s="68"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="58"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
     </row>
     <row r="33" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
@@ -2640,32 +2639,32 @@
         <v>113</v>
       </c>
       <c r="H33" s="22"/>
-      <c r="I33" s="51" t="s">
+      <c r="I33" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="89"/>
-      <c r="K33" s="44" t="s">
+      <c r="J33" s="87"/>
+      <c r="K33" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="44" t="s">
+      <c r="L33" s="80"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="P33" s="57" t="s">
+      <c r="P33" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="Q33" s="49" t="s">
+      <c r="Q33" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="6"/>
@@ -2675,16 +2674,16 @@
       <c r="AE33" s="6"/>
       <c r="AF33" s="22"/>
       <c r="AG33" s="22"/>
-      <c r="AH33" s="89"/>
+      <c r="AH33" s="87"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
-      <c r="AP33" s="68"/>
-      <c r="AQ33" s="68"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="58"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
     </row>
     <row r="34" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
@@ -2698,34 +2697,34 @@
       <c r="H34" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="84"/>
-      <c r="K34" s="44" t="s">
+      <c r="J34" s="82"/>
+      <c r="K34" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44" t="s">
+      <c r="L34" s="42"/>
+      <c r="M34" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44" t="s">
+      <c r="N34" s="42"/>
+      <c r="O34" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="P34" s="85" t="s">
+      <c r="P34" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="Q34" s="53" t="s">
+      <c r="Q34" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="6"/>
@@ -2735,16 +2734,16 @@
       <c r="AE34" s="6"/>
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
-      <c r="AH34" s="89"/>
+      <c r="AH34" s="87"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
-      <c r="AP34" s="68"/>
-      <c r="AQ34" s="68"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
     </row>
     <row r="35" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
@@ -2758,34 +2757,34 @@
       <c r="H35" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="44" t="s">
+      <c r="J35" s="82"/>
+      <c r="K35" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="44"/>
-      <c r="M35" s="54" t="s">
+      <c r="L35" s="42"/>
+      <c r="M35" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="N35" s="54"/>
-      <c r="O35" s="44" t="s">
+      <c r="N35" s="52"/>
+      <c r="O35" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="P35" s="85" t="s">
+      <c r="P35" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="Q35" s="53" t="s">
+      <c r="Q35" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="6"/>
@@ -2795,16 +2794,16 @@
       <c r="AE35" s="6"/>
       <c r="AF35" s="22"/>
       <c r="AG35" s="22"/>
-      <c r="AH35" s="89"/>
+      <c r="AH35" s="87"/>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="68"/>
-      <c r="AQ35" s="68"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
     </row>
     <row r="36" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
@@ -2818,34 +2817,34 @@
       <c r="H36" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="84"/>
-      <c r="K36" s="44" t="s">
+      <c r="J36" s="82"/>
+      <c r="K36" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="85" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="N36" s="85"/>
-      <c r="O36" s="44" t="s">
+      <c r="N36" s="83"/>
+      <c r="O36" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="P36" s="85" t="s">
+      <c r="P36" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="Q36" s="53" t="s">
+      <c r="Q36" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="6"/>
@@ -2855,16 +2854,16 @@
       <c r="AE36" s="6"/>
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
-      <c r="AH36" s="89"/>
+      <c r="AH36" s="87"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="68"/>
-      <c r="AQ36" s="68"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="58"/>
+      <c r="AO36" s="58"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
     </row>
     <row r="37" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
@@ -2883,34 +2882,34 @@
       <c r="H37" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="J37" s="84"/>
-      <c r="K37" s="44" t="s">
+      <c r="J37" s="82"/>
+      <c r="K37" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="48"/>
-      <c r="M37" s="85" t="s">
+      <c r="L37" s="46"/>
+      <c r="M37" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="85"/>
-      <c r="O37" s="44" t="s">
+      <c r="N37" s="83"/>
+      <c r="O37" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P37" s="85" t="s">
+      <c r="P37" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="Q37" s="53" t="s">
+      <c r="Q37" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="6"/>
@@ -2920,18 +2919,18 @@
       <c r="AE37" s="6"/>
       <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
-      <c r="AH37" s="49" t="s">
+      <c r="AH37" s="47" t="s">
         <v>154</v>
       </c>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
-      <c r="AP37" s="68"/>
-      <c r="AQ37" s="68"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="65"/>
+      <c r="AN37" s="58"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
     </row>
     <row r="38" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
@@ -2947,36 +2946,36 @@
       <c r="H38" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="84"/>
-      <c r="K38" s="44" t="s">
+      <c r="J38" s="82"/>
+      <c r="K38" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="48"/>
-      <c r="M38" s="85" t="s">
+      <c r="L38" s="46"/>
+      <c r="M38" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="N38" s="85"/>
-      <c r="O38" s="44" t="s">
+      <c r="N38" s="83"/>
+      <c r="O38" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="P38" s="85" t="s">
+      <c r="P38" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="Q38" s="53" t="s">
+      <c r="Q38" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="84"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="82"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="82"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6"/>
@@ -2984,20 +2983,20 @@
       <c r="AE38" s="6"/>
       <c r="AF38" s="22"/>
       <c r="AG38" s="22"/>
-      <c r="AH38" s="53" t="s">
+      <c r="AH38" s="51" t="s">
         <v>163</v>
       </c>
       <c r="AI38" s="5"/>
-      <c r="AJ38" s="69" t="s">
+      <c r="AJ38" s="67" t="s">
         <v>164</v>
       </c>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="60"/>
-      <c r="AO38" s="60"/>
-      <c r="AP38" s="68"/>
-      <c r="AQ38" s="68"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
     </row>
     <row r="39" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
@@ -3008,45 +3007,45 @@
       <c r="D39" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="108" t="s">
+      <c r="E39" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="109" t="s">
+      <c r="F39" s="107" t="s">
         <v>168</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="85"/>
-      <c r="K39" s="44" t="s">
+      <c r="J39" s="83"/>
+      <c r="K39" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="L39" s="48"/>
-      <c r="M39" s="85" t="s">
+      <c r="L39" s="46"/>
+      <c r="M39" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="N39" s="85"/>
-      <c r="O39" s="44" t="s">
+      <c r="N39" s="83"/>
+      <c r="O39" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="P39" s="85" t="s">
+      <c r="P39" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="Q39" s="53" t="s">
+      <c r="Q39" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="86"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="86"/>
-      <c r="X39" s="85"/>
-      <c r="Y39" s="85"/>
-      <c r="Z39" s="84"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="84"/>
+      <c r="W39" s="84"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="82"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
@@ -3054,21 +3053,21 @@
       <c r="AE39" s="6"/>
       <c r="AF39" s="22"/>
       <c r="AG39" s="22"/>
-      <c r="AH39" s="53" t="s">
+      <c r="AH39" s="51" t="s">
         <v>175</v>
       </c>
       <c r="AI39" s="5"/>
-      <c r="AJ39" s="69" t="s">
+      <c r="AJ39" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="AK39" s="115" t="s">
+      <c r="AK39" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="AL39" s="113"/>
-      <c r="AM39" s="113"/>
-      <c r="AN39" s="114"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="68"/>
+      <c r="AL39" s="112"/>
+      <c r="AM39" s="112"/>
+      <c r="AN39" s="113"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
     </row>
     <row r="40" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
@@ -3085,38 +3084,38 @@
       <c r="H40" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="55" t="s">
+      <c r="I40" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="J40" s="57"/>
-      <c r="K40" s="44" t="s">
+      <c r="J40" s="55"/>
+      <c r="K40" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="L40" s="48"/>
-      <c r="M40" s="85" t="s">
+      <c r="L40" s="46"/>
+      <c r="M40" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="N40" s="90"/>
-      <c r="O40" s="58" t="s">
+      <c r="N40" s="88"/>
+      <c r="O40" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="P40" s="49" t="s">
+      <c r="P40" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="Q40" s="49" t="s">
+      <c r="Q40" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57" t="s">
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="85"/>
-      <c r="Z40" s="84"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="82"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
@@ -3124,22 +3123,22 @@
       <c r="AE40" s="6"/>
       <c r="AF40" s="29"/>
       <c r="AG40" s="29"/>
-      <c r="AH40" s="49" t="s">
+      <c r="AH40" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="69" t="s">
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="AK40" s="112" t="s">
+      <c r="AK40" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="AL40" s="113"/>
-      <c r="AM40" s="114"/>
-      <c r="AP40" s="116" t="s">
+      <c r="AL40" s="112"/>
+      <c r="AM40" s="113"/>
+      <c r="AP40" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="AQ40" s="114"/>
+      <c r="AQ40" s="113"/>
     </row>
     <row r="41" spans="1:44" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
@@ -3169,19 +3168,19 @@
       <c r="I41" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="J41" s="80" t="s">
+      <c r="J41" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="K41" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="L41" s="83" t="s">
+      <c r="L41" s="81" t="s">
         <v>203</v>
       </c>
       <c r="M41" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="N41" s="83" t="s">
+      <c r="N41" s="81" t="s">
         <v>205</v>
       </c>
       <c r="O41" s="31" t="s">
@@ -3193,25 +3192,25 @@
       <c r="Q41" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="R41" s="80" t="s">
+      <c r="R41" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="S41" s="80" t="s">
+      <c r="S41" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="T41" s="80" t="s">
+      <c r="T41" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="U41" s="80" t="s">
+      <c r="U41" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="V41" s="80" t="s">
+      <c r="V41" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="W41" s="80" t="s">
+      <c r="W41" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="X41" s="80" t="s">
+      <c r="X41" s="78" t="s">
         <v>214</v>
       </c>
       <c r="Y41" s="31" t="s">
@@ -3220,263 +3219,328 @@
       <c r="Z41" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="AA41" s="62" t="s">
+      <c r="AA41" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="AB41" s="62" t="s">
+      <c r="AB41" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="AC41" s="63" t="s">
+      <c r="AC41" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="AD41" s="80" t="s">
+      <c r="AD41" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="AE41" s="80" t="s">
+      <c r="AE41" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="AF41" s="87" t="s">
+      <c r="AF41" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="AG41" s="87" t="s">
+      <c r="AG41" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="AH41" s="87" t="s">
+      <c r="AH41" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="AI41" s="64" t="s">
+      <c r="AI41" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="AJ41" s="70" t="s">
+      <c r="AJ41" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="AK41" s="71" t="s">
+      <c r="AK41" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="AL41" s="72" t="s">
+      <c r="AL41" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="AM41" s="73" t="s">
+      <c r="AM41" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="AN41" s="74" t="s">
+      <c r="AN41" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="AO41" s="80" t="s">
+      <c r="AO41" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="AP41" s="71" t="s">
+      <c r="AP41" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="AQ41" s="71" t="s">
+      <c r="AQ41" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="AR41" s="107" t="s">
+      <c r="AR41" s="105" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="42" spans="1:44" s="92" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="97" t="s">
+    <row r="42" spans="1:44" s="90" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="91"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="J42" s="97" t="s">
+      <c r="J42" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="K42" s="98" t="s">
+      <c r="K42" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="L42" s="98" t="s">
+      <c r="L42" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="M42" s="97" t="s">
+      <c r="M42" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="N42" s="98" t="s">
+      <c r="N42" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="O42" s="97" t="s">
+      <c r="O42" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="P42" s="97" t="s">
+      <c r="P42" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="Q42" s="97" t="s">
+      <c r="Q42" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="R42" s="97" t="s">
+      <c r="R42" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="S42" s="97" t="s">
+      <c r="S42" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="T42" s="97" t="s">
+      <c r="T42" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="U42" s="97" t="s">
+      <c r="U42" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="V42" s="97" t="s">
+      <c r="V42" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="W42" s="97" t="s">
+      <c r="W42" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="X42" s="97" t="s">
+      <c r="X42" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="Y42" s="97" t="s">
+      <c r="Y42" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="Z42" s="97" t="s">
+      <c r="Z42" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="AA42" s="99" t="s">
+      <c r="AA42" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="AB42" s="99" t="s">
+      <c r="AB42" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="AC42" s="99" t="s">
+      <c r="AC42" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="AD42" s="100" t="s">
+      <c r="AD42" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="AE42" s="100" t="s">
+      <c r="AE42" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="AF42" s="101"/>
-      <c r="AG42" s="101"/>
-      <c r="AH42" s="95"/>
-      <c r="AI42" s="102"/>
-      <c r="AJ42" s="102"/>
-      <c r="AK42" s="103"/>
-      <c r="AL42" s="104"/>
-      <c r="AM42" s="105"/>
-      <c r="AN42" s="102"/>
-      <c r="AO42" s="102"/>
-      <c r="AP42" s="103"/>
-      <c r="AQ42" s="103"/>
-      <c r="AR42" s="106"/>
+      <c r="AF42" s="99"/>
+      <c r="AG42" s="99"/>
+      <c r="AH42" s="93"/>
+      <c r="AI42" s="100"/>
+      <c r="AJ42" s="100"/>
+      <c r="AK42" s="101"/>
+      <c r="AL42" s="102"/>
+      <c r="AM42" s="103"/>
+      <c r="AN42" s="100"/>
+      <c r="AO42" s="100"/>
+      <c r="AP42" s="101"/>
+      <c r="AQ42" s="101"/>
+      <c r="AR42" s="104"/>
     </row>
     <row r="43" spans="1:44" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="108" t="s">
         <v>246</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="33" t="str">
-        <f>IF(C43=C$19,D$19,IF(C43=C$20,D$20,IF(C43=C$21,D$21,IF(C43=C$22,D$22,IF(C43=C$23,D$23,IF(C43=C$24,D$24,IF(C43=C$25,D$25,IF(C43=C$26,D$26,IF(C43=C$27,D$27,IF(C43=C$28,D$28,IF(C43=C$29,D$29,IF(C43=C$30,D$30,IF(C43=C$31,D$31,IF(C43=C$32,D$32,IF(C43=C$33,D$33,IF(C43=C$34,D$34,IF(C43=C$35,D$35,IF(C43=C$36,D$36,IF(C43=C$37,D$37,IF(C43=C$38,D$38,IF(C43=C$39,D$39,IF(C43=C$40,D$40,))))))))))))))))))))))</f>
-        <v>Индийская плитка</v>
-      </c>
-      <c r="E43" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="G43" s="86"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="88" t="s">
+      <c r="M43" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="H43" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" s="88" t="s">
+      <c r="O43" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="J43" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="K43" s="88" t="s">
+      <c r="P43" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q43" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="L43" s="88" t="s">
+      <c r="R43" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="M43" s="88" t="s">
+      <c r="S43" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="T43" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="U43" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="V43" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="W43" s="86" t="s">
+        <v>257</v>
+      </c>
+      <c r="X43" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y43" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z43" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA43" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB43" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC43" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD43" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE43" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="67"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="74"/>
+      <c r="AM43" s="75"/>
+      <c r="AN43" s="76"/>
+      <c r="AO43" s="110" t="s">
+        <v>266</v>
+      </c>
+      <c r="AP43" s="77"/>
+      <c r="AQ43" s="77"/>
+      <c r="AR43" s="16"/>
+    </row>
+    <row r="44" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>267</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" t="s">
         <v>171</v>
       </c>
-      <c r="N43" s="88" t="s">
+      <c r="N44" t="s">
+        <v>250</v>
+      </c>
+      <c r="O44" t="s">
+        <v>251</v>
+      </c>
+      <c r="P44" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>252</v>
+      </c>
+      <c r="S44" t="s">
         <v>254</v>
       </c>
-      <c r="O43" s="88" t="s">
+      <c r="T44" t="s">
         <v>255</v>
       </c>
-      <c r="P43" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q43" s="88" t="s">
-        <v>256</v>
-      </c>
-      <c r="R43" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="S43" s="88" t="s">
+      <c r="X44" t="s">
         <v>258</v>
       </c>
-      <c r="T43" s="88" t="s">
+      <c r="Y44" t="s">
         <v>259</v>
       </c>
-      <c r="U43" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="V43" s="88" t="s">
+      <c r="Z44" t="s">
         <v>260</v>
       </c>
-      <c r="W43" s="88" t="s">
+      <c r="AA44" t="s">
         <v>261</v>
       </c>
-      <c r="X43" s="88" t="s">
+      <c r="AB44" t="s">
         <v>262</v>
       </c>
-      <c r="Y43" s="88" t="s">
+      <c r="AC44" t="s">
         <v>263</v>
       </c>
-      <c r="Z43" s="88" t="s">
+      <c r="AD44" t="s">
         <v>264</v>
       </c>
-      <c r="AA43" s="88" t="s">
+      <c r="AE44" t="s">
         <v>265</v>
       </c>
-      <c r="AB43" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC43" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD43" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE43" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF43" s="35"/>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="65"/>
-      <c r="AJ43" s="69"/>
-      <c r="AK43" s="75"/>
-      <c r="AL43" s="76"/>
-      <c r="AM43" s="77"/>
-      <c r="AN43" s="78"/>
-      <c r="AO43" s="111" t="s">
+      <c r="AO44" t="s">
         <v>270</v>
       </c>
-      <c r="AP43" s="79"/>
-      <c r="AQ43" s="79"/>
-      <c r="AR43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52B1CBE-8A80-4784-8657-24E45711EDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F9AA2-D104-4C10-9A1B-A05434C42603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1529,7 +1529,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,6 +1540,7 @@
     <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3021,12 +3021,12 @@
       <c r="AJ39" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AK39" s="103" t="s">
+      <c r="AK39" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="AL39" s="101"/>
-      <c r="AM39" s="101"/>
-      <c r="AN39" s="102"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="100"/>
+      <c r="AN39" s="101"/>
       <c r="AP39" s="64"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
@@ -3092,15 +3092,15 @@
       <c r="AJ40" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="AK40" s="100" t="s">
+      <c r="AK40" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="AL40" s="101"/>
-      <c r="AM40" s="102"/>
-      <c r="AP40" s="104" t="s">
+      <c r="AL40" s="100"/>
+      <c r="AM40" s="101"/>
+      <c r="AP40" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="AQ40" s="102"/>
+      <c r="AQ40" s="101"/>
     </row>
     <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
@@ -3351,7 +3351,7 @@
       <c r="F43" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="99" t="s">
+      <c r="G43" s="104" t="s">
         <v>250</v>
       </c>
       <c r="H43" t="s">

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F9AA2-D104-4C10-9A1B-A05434C42603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBCDD74-89A4-4B33-8557-0417CCF1CD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1901,7 +1901,7 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBCDD74-89A4-4B33-8557-0417CCF1CD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE341DA-289F-4F2A-9A67-DB1E39FBAFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="282">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -826,6 +826,48 @@
   </si>
   <si>
     <t>3200</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-999940/</t>
+  </si>
+  <si>
+    <t>Belleza Denis Silver Shapetouch 60x120</t>
+  </si>
+  <si>
+    <t>серый</t>
+  </si>
+  <si>
+    <t>Оттенки серого</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-999953/</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Belleza Latin Travertine Crema Shapetouch 60x120</t>
+  </si>
+  <si>
+    <t>бежевый</t>
+  </si>
+  <si>
+    <t>Оттенки бежевого</t>
+  </si>
+  <si>
+    <t>4170</t>
+  </si>
+  <si>
+    <t>https://3dplitka.ru/product-999956/</t>
+  </si>
+  <si>
+    <t>Massive</t>
+  </si>
+  <si>
+    <t>Belleza Massive Grey Stone Shapetouch 60x120</t>
+  </si>
+  <si>
+    <t>под бетон, цемент</t>
   </si>
 </sst>
 </file>
@@ -1529,6 +1571,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,7 +1583,6 @@
     <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1898,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AS46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1935,8 +1977,8 @@
     <col min="40" max="41" width="9.42578125" style="6" customWidth="1"/>
     <col min="42" max="43" width="9.140625" style="10" customWidth="1"/>
     <col min="44" max="44" width="13.140625" style="10" customWidth="1"/>
-    <col min="45" max="65" width="9.140625" style="3" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="3"/>
+    <col min="45" max="66" width="9.140625" style="3" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,12 +3063,12 @@
       <c r="AJ39" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AK39" s="102" t="s">
+      <c r="AK39" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="AL39" s="100"/>
-      <c r="AM39" s="100"/>
-      <c r="AN39" s="101"/>
+      <c r="AL39" s="101"/>
+      <c r="AM39" s="101"/>
+      <c r="AN39" s="102"/>
       <c r="AP39" s="64"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
@@ -3092,15 +3134,15 @@
       <c r="AJ40" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="AK40" s="99" t="s">
+      <c r="AK40" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="AL40" s="100"/>
-      <c r="AM40" s="101"/>
-      <c r="AP40" s="103" t="s">
+      <c r="AL40" s="101"/>
+      <c r="AM40" s="102"/>
+      <c r="AP40" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="AQ40" s="101"/>
+      <c r="AQ40" s="102"/>
     </row>
     <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
@@ -3351,7 +3393,7 @@
       <c r="F43" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="104" t="s">
+      <c r="G43" s="99" t="s">
         <v>250</v>
       </c>
       <c r="H43" t="s">
@@ -3416,6 +3458,264 @@
       </c>
       <c r="AO43" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" t="s">
+        <v>157</v>
+      </c>
+      <c r="K44" t="s">
+        <v>270</v>
+      </c>
+      <c r="L44" t="s">
+        <v>271</v>
+      </c>
+      <c r="M44" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44" t="s">
+        <v>254</v>
+      </c>
+      <c r="O44" t="s">
+        <v>255</v>
+      </c>
+      <c r="P44" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>256</v>
+      </c>
+      <c r="S44" t="s">
+        <v>257</v>
+      </c>
+      <c r="T44" t="s">
+        <v>258</v>
+      </c>
+      <c r="X44" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J45" t="s">
+        <v>157</v>
+      </c>
+      <c r="K45" t="s">
+        <v>275</v>
+      </c>
+      <c r="L45" t="s">
+        <v>276</v>
+      </c>
+      <c r="M45" t="s">
+        <v>171</v>
+      </c>
+      <c r="N45" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" t="s">
+        <v>255</v>
+      </c>
+      <c r="P45" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>256</v>
+      </c>
+      <c r="S45" t="s">
+        <v>257</v>
+      </c>
+      <c r="T45" t="s">
+        <v>258</v>
+      </c>
+      <c r="X45" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" t="s">
+        <v>280</v>
+      </c>
+      <c r="H46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" t="s">
+        <v>251</v>
+      </c>
+      <c r="J46" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" t="s">
+        <v>270</v>
+      </c>
+      <c r="L46" t="s">
+        <v>271</v>
+      </c>
+      <c r="M46" t="s">
+        <v>171</v>
+      </c>
+      <c r="N46" t="s">
+        <v>254</v>
+      </c>
+      <c r="O46" t="s">
+        <v>281</v>
+      </c>
+      <c r="P46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>256</v>
+      </c>
+      <c r="S46" t="s">
+        <v>257</v>
+      </c>
+      <c r="T46" t="s">
+        <v>258</v>
+      </c>
+      <c r="X46" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE341DA-289F-4F2A-9A67-DB1E39FBAFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B22C7-4F87-496B-B1DE-DDC4CE28EE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="269">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -828,46 +828,7 @@
     <t>3200</t>
   </si>
   <si>
-    <t>https://3dplitka.ru/product-999940/</t>
-  </si>
-  <si>
-    <t>Belleza Denis Silver Shapetouch 60x120</t>
-  </si>
-  <si>
-    <t>серый</t>
-  </si>
-  <si>
-    <t>Оттенки серого</t>
-  </si>
-  <si>
-    <t>https://3dplitka.ru/product-999953/</t>
-  </si>
-  <si>
-    <t>Latin</t>
-  </si>
-  <si>
-    <t>Belleza Latin Travertine Crema Shapetouch 60x120</t>
-  </si>
-  <si>
-    <t>бежевый</t>
-  </si>
-  <si>
-    <t>Оттенки бежевого</t>
-  </si>
-  <si>
-    <t>4170</t>
-  </si>
-  <si>
-    <t>https://3dplitka.ru/product-999956/</t>
-  </si>
-  <si>
-    <t>Massive</t>
-  </si>
-  <si>
-    <t>Belleza Massive Grey Stone Shapetouch 60x120</t>
-  </si>
-  <si>
-    <t>под бетон, цемент</t>
+    <t>downloaded_images\Belleza Denis Grande Shapetouch 60x120.jpg</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1352,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1571,7 +1532,10 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1583,6 +1547,7 @@
     <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1940,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1977,8 +1942,8 @@
     <col min="40" max="41" width="9.42578125" style="6" customWidth="1"/>
     <col min="42" max="43" width="9.140625" style="10" customWidth="1"/>
     <col min="44" max="44" width="13.140625" style="10" customWidth="1"/>
-    <col min="45" max="66" width="9.140625" style="3" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="3"/>
+    <col min="45" max="70" width="9.140625" style="3" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,7 +3340,7 @@
       <c r="AS42" s="95"/>
     </row>
     <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="99" t="s">
         <v>247</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -3393,7 +3358,7 @@
       <c r="F43" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="99" t="s">
+      <c r="G43" s="105" t="s">
         <v>250</v>
       </c>
       <c r="H43" t="s">
@@ -3459,263 +3424,8 @@
       <c r="AO43" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="44" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="AR43" t="s">
         <v>268</v>
-      </c>
-      <c r="B44" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" t="s">
-        <v>249</v>
-      </c>
-      <c r="G44" t="s">
-        <v>269</v>
-      </c>
-      <c r="H44" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" t="s">
-        <v>251</v>
-      </c>
-      <c r="J44" t="s">
-        <v>157</v>
-      </c>
-      <c r="K44" t="s">
-        <v>270</v>
-      </c>
-      <c r="L44" t="s">
-        <v>271</v>
-      </c>
-      <c r="M44" t="s">
-        <v>171</v>
-      </c>
-      <c r="N44" t="s">
-        <v>254</v>
-      </c>
-      <c r="O44" t="s">
-        <v>255</v>
-      </c>
-      <c r="P44" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>256</v>
-      </c>
-      <c r="S44" t="s">
-        <v>257</v>
-      </c>
-      <c r="T44" t="s">
-        <v>258</v>
-      </c>
-      <c r="X44" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="G45" t="s">
-        <v>274</v>
-      </c>
-      <c r="H45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" t="s">
-        <v>251</v>
-      </c>
-      <c r="J45" t="s">
-        <v>157</v>
-      </c>
-      <c r="K45" t="s">
-        <v>275</v>
-      </c>
-      <c r="L45" t="s">
-        <v>276</v>
-      </c>
-      <c r="M45" t="s">
-        <v>171</v>
-      </c>
-      <c r="N45" t="s">
-        <v>254</v>
-      </c>
-      <c r="O45" t="s">
-        <v>255</v>
-      </c>
-      <c r="P45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>256</v>
-      </c>
-      <c r="S45" t="s">
-        <v>257</v>
-      </c>
-      <c r="T45" t="s">
-        <v>258</v>
-      </c>
-      <c r="X45" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="98" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" t="s">
-        <v>251</v>
-      </c>
-      <c r="J46" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" t="s">
-        <v>270</v>
-      </c>
-      <c r="L46" t="s">
-        <v>271</v>
-      </c>
-      <c r="M46" t="s">
-        <v>171</v>
-      </c>
-      <c r="N46" t="s">
-        <v>254</v>
-      </c>
-      <c r="O46" t="s">
-        <v>281</v>
-      </c>
-      <c r="P46" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>256</v>
-      </c>
-      <c r="S46" t="s">
-        <v>257</v>
-      </c>
-      <c r="T46" t="s">
-        <v>258</v>
-      </c>
-      <c r="X46" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3730,6 +3440,9 @@
   <conditionalFormatting sqref="J37 Q37:X37">
     <cfRule type="duplicateValues" dxfId="0" priority="59"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
 </worksheet>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B22C7-4F87-496B-B1DE-DDC4CE28EE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBC37B6-04CC-4D69-9E8A-2648A1BD3364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="250">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -772,63 +772,6 @@
   </si>
   <si>
     <t>Denis</t>
-  </si>
-  <si>
-    <t>Belleza Denis Grande Shapetouch 60x120</t>
-  </si>
-  <si>
-    <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
-  </si>
-  <si>
-    <t>коричневый</t>
-  </si>
-  <si>
-    <t>Оттенки бежевого, Оттенки коричневого</t>
-  </si>
-  <si>
-    <t>структурированная, натуральная, ректифицированная</t>
-  </si>
-  <si>
-    <t>под камень, травертин, сланец, гранит</t>
-  </si>
-  <si>
-    <t>прямоугольник</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>downloaded_images\Belleza Denis Grande Shapetouch 60x120.jpg</t>
   </si>
 </sst>
 </file>
@@ -1908,45 +1851,45 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="66.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="79" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="79" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" style="72" customWidth="1"/>
-    <col min="13" max="14" width="13.85546875" style="79" customWidth="1"/>
-    <col min="15" max="24" width="12.42578125" style="79" customWidth="1"/>
-    <col min="25" max="25" width="6.140625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" style="5" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="5" customWidth="1"/>
-    <col min="29" max="31" width="7.28515625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="79" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="66.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="14.73046875" style="79" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="79" customWidth="1"/>
+    <col min="11" max="12" width="10.59765625" style="72" customWidth="1"/>
+    <col min="13" max="14" width="13.86328125" style="79" customWidth="1"/>
+    <col min="15" max="24" width="12.3984375" style="79" customWidth="1"/>
+    <col min="25" max="25" width="6.1328125" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="8.3984375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="7.73046875" style="5" customWidth="1"/>
+    <col min="29" max="31" width="7.265625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="7.59765625" style="79" customWidth="1"/>
     <col min="33" max="33" width="11" style="79" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="79" customWidth="1"/>
-    <col min="35" max="35" width="7.28515625" style="6" customWidth="1"/>
-    <col min="36" max="36" width="6.7109375" style="6" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" style="7" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" style="8" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" style="9" customWidth="1"/>
-    <col min="40" max="41" width="9.42578125" style="6" customWidth="1"/>
-    <col min="42" max="43" width="9.140625" style="10" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" style="10" customWidth="1"/>
-    <col min="45" max="70" width="9.140625" style="3" customWidth="1"/>
-    <col min="71" max="16384" width="9.140625" style="3"/>
+    <col min="34" max="34" width="6.1328125" style="79" customWidth="1"/>
+    <col min="35" max="35" width="7.265625" style="6" customWidth="1"/>
+    <col min="36" max="36" width="6.73046875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="8.1328125" style="7" customWidth="1"/>
+    <col min="38" max="38" width="7.59765625" style="8" customWidth="1"/>
+    <col min="39" max="39" width="9.3984375" style="9" customWidth="1"/>
+    <col min="40" max="41" width="9.3984375" style="6" customWidth="1"/>
+    <col min="42" max="43" width="9.1328125" style="10" customWidth="1"/>
+    <col min="44" max="44" width="13.1328125" style="10" customWidth="1"/>
+    <col min="45" max="71" width="9.1328125" style="3" customWidth="1"/>
+    <col min="72" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1978,62 +1921,62 @@
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
     </row>
-    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O3" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O4" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O5" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O6" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O7" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O8" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O9" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O10" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O11" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O12" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +1984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I14" s="37" t="s">
         <v>14</v>
       </c>
@@ -2061,7 +2004,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I15" s="39" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2024,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I16" s="40" t="s">
         <v>20</v>
       </c>
@@ -2101,7 +2044,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2070,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
@@ -2153,7 +2096,7 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -2170,7 +2113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="18" t="s">
         <v>38</v>
       </c>
@@ -2187,7 +2130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="14" t="s">
         <v>43</v>
       </c>
@@ -2204,7 +2147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="14" t="s">
         <v>48</v>
       </c>
@@ -2221,7 +2164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="14" t="s">
         <v>53</v>
       </c>
@@ -2238,7 +2181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="14" t="s">
         <v>58</v>
       </c>
@@ -2255,7 +2198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="14" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="14" t="s">
         <v>68</v>
       </c>
@@ -2292,7 +2235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="14" t="s">
         <v>74</v>
       </c>
@@ -2312,7 +2255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="14" t="s">
@@ -2367,7 +2310,7 @@
       <c r="AQ28" s="64"/>
       <c r="AR28" s="64"/>
     </row>
-    <row r="29" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="14" t="s">
@@ -2422,7 +2365,7 @@
       <c r="AQ29" s="64"/>
       <c r="AR29" s="64"/>
     </row>
-    <row r="30" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="14" t="s">
@@ -2477,7 +2420,7 @@
       <c r="AQ30" s="64"/>
       <c r="AR30" s="64"/>
     </row>
-    <row r="31" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="14" t="s">
@@ -2534,7 +2477,7 @@
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
     </row>
-    <row r="32" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="14" t="s">
@@ -2591,7 +2534,7 @@
       <c r="AQ32" s="64"/>
       <c r="AR32" s="64"/>
     </row>
-    <row r="33" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="14" t="s">
@@ -2648,7 +2591,7 @@
       <c r="AQ33" s="64"/>
       <c r="AR33" s="64"/>
     </row>
-    <row r="34" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="14" t="s">
@@ -2709,7 +2652,7 @@
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
     </row>
-    <row r="35" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="14" t="s">
@@ -2770,7 +2713,7 @@
       <c r="AQ35" s="64"/>
       <c r="AR35" s="64"/>
     </row>
-    <row r="36" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="14" t="s">
@@ -2831,7 +2774,7 @@
       <c r="AQ36" s="64"/>
       <c r="AR36" s="64"/>
     </row>
-    <row r="37" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="14" t="s">
@@ -2899,7 +2842,7 @@
       <c r="AQ37" s="64"/>
       <c r="AR37" s="64"/>
     </row>
-    <row r="38" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="25"/>
       <c r="C38" s="14" t="s">
         <v>155</v>
@@ -2966,7 +2909,7 @@
       <c r="AQ38" s="64"/>
       <c r="AR38" s="64"/>
     </row>
-    <row r="39" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="25"/>
       <c r="B39" s="20"/>
       <c r="C39" s="14" t="s">
@@ -3038,7 +2981,7 @@
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
     </row>
-    <row r="40" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="14" t="s">
@@ -3109,7 +3052,7 @@
       </c>
       <c r="AQ40" s="102"/>
     </row>
-    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>192</v>
       </c>
@@ -3246,7 +3189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="81" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" s="81" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="82"/>
       <c r="B42" s="83"/>
       <c r="C42" s="84"/>
@@ -3339,7 +3282,7 @@
       <c r="AR42" s="92"/>
       <c r="AS42" s="95"/>
     </row>
-    <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="99" t="s">
         <v>247</v>
       </c>
@@ -3358,75 +3301,29 @@
       <c r="F43" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="105" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" t="s">
-        <v>251</v>
-      </c>
-      <c r="J43" t="s">
-        <v>157</v>
-      </c>
-      <c r="K43" t="s">
-        <v>252</v>
-      </c>
-      <c r="L43" t="s">
-        <v>253</v>
-      </c>
-      <c r="M43" t="s">
-        <v>171</v>
-      </c>
-      <c r="N43" t="s">
-        <v>254</v>
-      </c>
-      <c r="O43" t="s">
-        <v>255</v>
-      </c>
-      <c r="P43" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>256</v>
-      </c>
-      <c r="S43" t="s">
-        <v>257</v>
-      </c>
-      <c r="T43" t="s">
-        <v>258</v>
-      </c>
-      <c r="X43" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>268</v>
-      </c>
+      <c r="G43" s="105"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AO43"/>
+      <c r="AR43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3454,7 +3351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -3467,7 +3364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBC37B6-04CC-4D69-9E8A-2648A1BD3364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AD3BC-27E7-49F1-BB52-099931EF8FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="268">
   <si>
     <t>С фруктами и едой</t>
   </si>
@@ -772,6 +772,60 @@
   </si>
   <si>
     <t>Denis</t>
+  </si>
+  <si>
+    <t>Belleza Denis Grande Shapetouch 60x120</t>
+  </si>
+  <si>
+    <t>Для ванной, Для гостиной, Для коридора, Для кухни</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>Оттенки бежевого, Оттенки коричневого</t>
+  </si>
+  <si>
+    <t>структурированная, натуральная, ректифицированная</t>
+  </si>
+  <si>
+    <t>под камень, травертин, сланец, гранит</t>
+  </si>
+  <si>
+    <t>прямоугольник</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Группа BIa – влагопоглощение – Eb ≤ 0,5%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>3200</t>
   </si>
 </sst>
 </file>
@@ -1479,6 +1533,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,7 +1545,6 @@
     <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1851,7 +1905,7 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1885,8 +1939,8 @@
     <col min="40" max="41" width="9.3984375" style="6" customWidth="1"/>
     <col min="42" max="43" width="9.1328125" style="10" customWidth="1"/>
     <col min="44" max="44" width="13.1328125" style="10" customWidth="1"/>
-    <col min="45" max="71" width="9.1328125" style="3" customWidth="1"/>
-    <col min="72" max="16384" width="9.1328125" style="3"/>
+    <col min="45" max="72" width="9.1328125" style="3" customWidth="1"/>
+    <col min="73" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2971,12 +3025,12 @@
       <c r="AJ39" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AK39" s="103" t="s">
+      <c r="AK39" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="AL39" s="101"/>
-      <c r="AM39" s="101"/>
-      <c r="AN39" s="102"/>
+      <c r="AL39" s="102"/>
+      <c r="AM39" s="102"/>
+      <c r="AN39" s="103"/>
       <c r="AP39" s="64"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
@@ -3042,15 +3096,15 @@
       <c r="AJ40" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="AK40" s="100" t="s">
+      <c r="AK40" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="AL40" s="101"/>
-      <c r="AM40" s="102"/>
-      <c r="AP40" s="104" t="s">
+      <c r="AL40" s="102"/>
+      <c r="AM40" s="103"/>
+      <c r="AP40" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="AQ40" s="102"/>
+      <c r="AQ40" s="103"/>
     </row>
     <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
@@ -3301,29 +3355,72 @@
       <c r="F43" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="105"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-      <c r="AO43"/>
-      <c r="AR43"/>
+      <c r="G43" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" t="s">
+        <v>157</v>
+      </c>
+      <c r="K43" t="s">
+        <v>252</v>
+      </c>
+      <c r="L43" t="s">
+        <v>253</v>
+      </c>
+      <c r="M43" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O43" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>256</v>
+      </c>
+      <c r="S43" t="s">
+        <v>257</v>
+      </c>
+      <c r="T43" t="s">
+        <v>258</v>
+      </c>
+      <c r="X43" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Parsing_characteristis_and_photo/for_parsing_try.xlsx
+++ b/Parsing_characteristis_and_photo/for_parsing_try.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AD3BC-27E7-49F1-BB52-099931EF8FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55F9A6-E840-4319-8A89-C6F1C7A63252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1533,7 +1533,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,6 +1544,7 @@
     <xf numFmtId="1" fontId="13" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1908,42 +1908,42 @@
       <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="66.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="14.73046875" style="79" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="79" customWidth="1"/>
-    <col min="11" max="12" width="10.59765625" style="72" customWidth="1"/>
-    <col min="13" max="14" width="13.86328125" style="79" customWidth="1"/>
-    <col min="15" max="24" width="12.3984375" style="79" customWidth="1"/>
-    <col min="25" max="25" width="6.1328125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.3984375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="7.73046875" style="5" customWidth="1"/>
-    <col min="29" max="31" width="7.265625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="7.59765625" style="79" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="66.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="79" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="79" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" style="72" customWidth="1"/>
+    <col min="13" max="14" width="13.85546875" style="79" customWidth="1"/>
+    <col min="15" max="24" width="12.42578125" style="79" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="5" customWidth="1"/>
+    <col min="29" max="31" width="7.28515625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="79" customWidth="1"/>
     <col min="33" max="33" width="11" style="79" customWidth="1"/>
-    <col min="34" max="34" width="6.1328125" style="79" customWidth="1"/>
-    <col min="35" max="35" width="7.265625" style="6" customWidth="1"/>
-    <col min="36" max="36" width="6.73046875" style="6" customWidth="1"/>
-    <col min="37" max="37" width="8.1328125" style="7" customWidth="1"/>
-    <col min="38" max="38" width="7.59765625" style="8" customWidth="1"/>
-    <col min="39" max="39" width="9.3984375" style="9" customWidth="1"/>
-    <col min="40" max="41" width="9.3984375" style="6" customWidth="1"/>
-    <col min="42" max="43" width="9.1328125" style="10" customWidth="1"/>
-    <col min="44" max="44" width="13.1328125" style="10" customWidth="1"/>
-    <col min="45" max="72" width="9.1328125" style="3" customWidth="1"/>
-    <col min="73" max="16384" width="9.1328125" style="3"/>
+    <col min="34" max="34" width="6.140625" style="79" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" style="6" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" style="7" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="8" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" style="9" customWidth="1"/>
+    <col min="40" max="41" width="9.42578125" style="6" customWidth="1"/>
+    <col min="42" max="43" width="9.140625" style="10" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" style="10" customWidth="1"/>
+    <col min="45" max="73" width="9.140625" style="3" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1975,62 +1975,62 @@
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
     </row>
-    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O3" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O4" s="34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O5" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O6" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O7" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O8" s="34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O9" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O10" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O11" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O12" s="50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="37" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I14" s="37" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
     </row>
-    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I15" s="39" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
     </row>
-    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="40" t="s">
         <v>20</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="W16" s="38"/>
       <c r="X16" s="38"/>
     </row>
-    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="38"/>
     </row>
-    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
     </row>
-    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14" t="s">
         <v>33</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="18" t="s">
         <v>38</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
         <v>43</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
         <v>48</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
         <v>53</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>58</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
         <v>63</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="14" t="s">
         <v>68</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
         <v>74</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="14" t="s">
@@ -2364,7 +2364,7 @@
       <c r="AQ28" s="64"/>
       <c r="AR28" s="64"/>
     </row>
-    <row r="29" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="14" t="s">
@@ -2419,7 +2419,7 @@
       <c r="AQ29" s="64"/>
       <c r="AR29" s="64"/>
     </row>
-    <row r="30" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="14" t="s">
@@ -2474,7 +2474,7 @@
       <c r="AQ30" s="64"/>
       <c r="AR30" s="64"/>
     </row>
-    <row r="31" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="14" t="s">
@@ -2531,7 +2531,7 @@
       <c r="AQ31" s="64"/>
       <c r="AR31" s="64"/>
     </row>
-    <row r="32" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:44" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="14" t="s">
@@ -2588,7 +2588,7 @@
       <c r="AQ32" s="64"/>
       <c r="AR32" s="64"/>
     </row>
-    <row r="33" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="14" t="s">
@@ -2645,7 +2645,7 @@
       <c r="AQ33" s="64"/>
       <c r="AR33" s="64"/>
     </row>
-    <row r="34" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="14" t="s">
@@ -2706,7 +2706,7 @@
       <c r="AQ34" s="64"/>
       <c r="AR34" s="64"/>
     </row>
-    <row r="35" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="14" t="s">
@@ -2767,7 +2767,7 @@
       <c r="AQ35" s="64"/>
       <c r="AR35" s="64"/>
     </row>
-    <row r="36" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="14" t="s">
@@ -2828,7 +2828,7 @@
       <c r="AQ36" s="64"/>
       <c r="AR36" s="64"/>
     </row>
-    <row r="37" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="14" t="s">
@@ -2896,7 +2896,7 @@
       <c r="AQ37" s="64"/>
       <c r="AR37" s="64"/>
     </row>
-    <row r="38" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="C38" s="14" t="s">
         <v>155</v>
@@ -2963,7 +2963,7 @@
       <c r="AQ38" s="64"/>
       <c r="AR38" s="64"/>
     </row>
-    <row r="39" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="20"/>
       <c r="C39" s="14" t="s">
@@ -3025,17 +3025,17 @@
       <c r="AJ39" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AK39" s="104" t="s">
+      <c r="AK39" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="AL39" s="102"/>
-      <c r="AM39" s="102"/>
-      <c r="AN39" s="103"/>
+      <c r="AL39" s="101"/>
+      <c r="AM39" s="101"/>
+      <c r="AN39" s="102"/>
       <c r="AP39" s="64"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="64"/>
     </row>
-    <row r="40" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:45" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="14" t="s">
@@ -3096,17 +3096,17 @@
       <c r="AJ40" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="AK40" s="101" t="s">
+      <c r="AK40" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="AL40" s="102"/>
-      <c r="AM40" s="103"/>
-      <c r="AP40" s="105" t="s">
+      <c r="AL40" s="101"/>
+      <c r="AM40" s="102"/>
+      <c r="AP40" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="AQ40" s="103"/>
-    </row>
-    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AQ40" s="102"/>
+    </row>
+    <row r="41" spans="1:45" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>192</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="81" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" s="81" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="82"/>
       <c r="B42" s="83"/>
       <c r="C42" s="84"/>
@@ -3336,7 +3336,7 @@
       <c r="AR42" s="92"/>
       <c r="AS42" s="95"/>
     </row>
-    <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
         <v>247</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="F43" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="G43" s="100" t="s">
+      <c r="G43" s="105" t="s">
         <v>250</v>
       </c>
       <c r="H43" t="s">
@@ -3448,7 +3448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -3461,7 +3461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
